--- a/sriramModel-nelson-atypical-patientID_19-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_19-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.216983733801792</v>
+        <v>2.025917693441564</v>
       </c>
       <c r="C2">
-        <v>2.045420093396027</v>
+        <v>2.50626957598813</v>
       </c>
       <c r="D2">
-        <v>2.198437620119604</v>
+        <v>2.371280406510389</v>
       </c>
       <c r="E2">
-        <v>2.614562791683171</v>
+        <v>2.0126332088468</v>
       </c>
       <c r="F2">
-        <v>2.198675298482946</v>
+        <v>2.074208648890399</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.437873907649671</v>
+        <v>2.052332340693564</v>
       </c>
       <c r="C3">
-        <v>2.091503902231964</v>
+        <v>3.020412289950549</v>
       </c>
       <c r="D3">
-        <v>2.396246129164215</v>
+        <v>2.744275289018354</v>
       </c>
       <c r="E3">
-        <v>3.228740461617334</v>
+        <v>2.025541630456409</v>
       </c>
       <c r="F3">
-        <v>2.398804466469544</v>
+        <v>2.149618899787106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.662931170556448</v>
+        <v>2.079210887474971</v>
       </c>
       <c r="C4">
-        <v>2.138216684980001</v>
+        <v>3.540849695256503</v>
       </c>
       <c r="D4">
-        <v>2.593310183384095</v>
+        <v>3.117545154349404</v>
       </c>
       <c r="E4">
-        <v>3.841762245760129</v>
+        <v>2.038706865340428</v>
       </c>
       <c r="F4">
-        <v>2.599936606212709</v>
+        <v>2.226144364844347</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.892346447207738</v>
+        <v>2.106522167948594</v>
       </c>
       <c r="C5">
-        <v>2.185524002856092</v>
+        <v>4.065695943442764</v>
       </c>
       <c r="D5">
-        <v>2.789513640305772</v>
+        <v>3.49029860086615</v>
       </c>
       <c r="E5">
-        <v>4.453482120656195</v>
+        <v>2.052111619153755</v>
       </c>
       <c r="F5">
-        <v>2.801603129177527</v>
+        <v>2.303704144409975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.126190088205254</v>
+        <v>2.134236757856017</v>
       </c>
       <c r="C6">
-        <v>2.233391871943669</v>
+        <v>4.593424418485662</v>
       </c>
       <c r="D6">
-        <v>2.984735756012959</v>
+        <v>3.862059044574448</v>
       </c>
       <c r="E6">
-        <v>5.063651705972069</v>
+        <v>2.065739629974823</v>
       </c>
       <c r="F6">
-        <v>3.003361500809651</v>
+        <v>2.382222627765062</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.364377592994586</v>
+        <v>2.162326902600443</v>
       </c>
       <c r="C7">
-        <v>2.281786851721016</v>
+        <v>5.122869359649063</v>
       </c>
       <c r="D7">
-        <v>3.178848275881057</v>
+        <v>4.232482057487826</v>
       </c>
       <c r="E7">
-        <v>5.67167087919774</v>
+        <v>2.079575620942641</v>
       </c>
       <c r="F7">
-        <v>3.204790953458719</v>
+        <v>2.461629123036809</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.606661849811476</v>
+        <v>2.190766441034051</v>
       </c>
       <c r="C8">
-        <v>2.330676177724368</v>
+        <v>5.653022830919624</v>
       </c>
       <c r="D8">
-        <v>3.371714681807687</v>
+        <v>4.601238836743099</v>
       </c>
       <c r="E8">
-        <v>6.276696249247129</v>
+        <v>2.093605257294544</v>
       </c>
       <c r="F8">
-        <v>3.405491030901577</v>
+        <v>2.541857453389178</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.852652503704818</v>
+        <v>2.219530719884336</v>
       </c>
       <c r="C9">
-        <v>2.380027894257807</v>
+        <v>6.18294059264392</v>
       </c>
       <c r="D9">
-        <v>3.56319211292534</v>
+        <v>4.967961339514098</v>
       </c>
       <c r="E9">
-        <v>6.877861204825112</v>
+        <v>2.107815109558763</v>
       </c>
       <c r="F9">
-        <v>3.605091446806683</v>
+        <v>2.622845727424825</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.101853500883026</v>
+        <v>2.248596519367674</v>
       </c>
       <c r="C10">
-        <v>2.429810957053809</v>
+        <v>6.711751791520737</v>
       </c>
       <c r="D10">
-        <v>3.753135176817643</v>
+        <v>5.332249535533524</v>
       </c>
       <c r="E10">
-        <v>7.47435722047195</v>
+        <v>2.1221926458102</v>
       </c>
       <c r="F10">
-        <v>3.803259593615249</v>
+        <v>2.704536109143945</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.353706590727945</v>
+        <v>2.277941983861504</v>
       </c>
       <c r="C11">
-        <v>2.479995329508648</v>
+        <v>7.2386721811528</v>
       </c>
       <c r="D11">
-        <v>3.941400269886868</v>
+        <v>5.693701634437661</v>
       </c>
       <c r="E11">
-        <v>8.065449028572406</v>
+        <v>2.136726155993035</v>
       </c>
       <c r="F11">
-        <v>3.999701549642063</v>
+        <v>2.786874558921366</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.607631177971005</v>
+        <v>2.307546554520614</v>
       </c>
       <c r="C12">
-        <v>2.530552060887662</v>
+        <v>7.763001076655268</v>
       </c>
       <c r="D12">
-        <v>4.127849306945153</v>
+        <v>6.051936150800372</v>
       </c>
       <c r="E12">
-        <v>8.650474388974889</v>
+        <v>2.151404717379591</v>
       </c>
       <c r="F12">
-        <v>4.194159391903835</v>
+        <v>2.869810570275551</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.863055476969266</v>
+        <v>2.337390892750478</v>
       </c>
       <c r="C13">
-        <v>2.581453344253806</v>
+        <v>8.284112570739151</v>
       </c>
       <c r="D13">
-        <v>4.312352418892325</v>
+        <v>6.406601904596764</v>
       </c>
       <c r="E13">
-        <v>9.228840609745054</v>
+        <v>2.166218178228212</v>
       </c>
       <c r="F13">
-        <v>4.386407452057989</v>
+        <v>2.953296966554522</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.119437706304915</v>
+        <v>2.367456875844857</v>
       </c>
       <c r="C14">
-        <v>2.632672561377482</v>
+        <v>8.801446837731993</v>
       </c>
       <c r="D14">
-        <v>4.494789631963324</v>
+        <v>6.757381102500188</v>
       </c>
       <c r="E14">
-        <v>9.800020401606227</v>
+        <v>2.181157138880462</v>
       </c>
       <c r="F14">
-        <v>4.576248698689983</v>
+        <v>3.037289734394587</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.376278369057044</v>
+        <v>2.397727472022501</v>
       </c>
       <c r="C15">
-        <v>2.684184299172679</v>
+        <v>9.314502903605344</v>
       </c>
       <c r="D15">
-        <v>4.675051750754983</v>
+        <v>7.103989231392266</v>
       </c>
       <c r="E15">
-        <v>10.36354766900913</v>
+        <v>2.196212921175492</v>
       </c>
       <c r="F15">
-        <v>4.763511588098677</v>
+        <v>3.121747849698804</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.633125730948407</v>
+        <v>2.428186692184787</v>
       </c>
       <c r="C16">
-        <v>2.735964340898604</v>
+        <v>9.822832770413317</v>
       </c>
       <c r="D16">
-        <v>4.853040652070689</v>
+        <v>7.446173680086738</v>
       </c>
       <c r="E16">
-        <v>10.91901339601413</v>
+        <v>2.211377537347339</v>
       </c>
       <c r="F16">
-        <v>4.948047401169437</v>
+        <v>3.20663309910132</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.889576605398337</v>
+        <v>2.458819551749853</v>
       </c>
       <c r="C17">
-        <v>2.787989633375436</v>
+        <v>10.32603659986513</v>
       </c>
       <c r="D17">
-        <v>5.028669217690657</v>
+        <v>7.783711895250242</v>
       </c>
       <c r="E17">
-        <v>11.46606168107123</v>
+        <v>2.226643670592393</v>
       </c>
       <c r="F17">
-        <v>5.129727984594001</v>
+        <v>3.291909930473823</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.145274284551762</v>
+        <v>2.489612030193868</v>
       </c>
       <c r="C18">
-        <v>2.840238218714254</v>
+        <v>10.82375864151361</v>
       </c>
       <c r="D18">
-        <v>5.201861022912739</v>
+        <v>8.116409406453926</v>
       </c>
       <c r="E18">
-        <v>12.00438594829873</v>
+        <v>2.24200464912849</v>
       </c>
       <c r="F18">
-        <v>5.308443808678095</v>
+        <v>3.377545286279611</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.399904954083</v>
+        <v>2.520551019712314</v>
       </c>
       <c r="C19">
-        <v>2.892689145730058</v>
+        <v>11.31568371093951</v>
       </c>
       <c r="D19">
-        <v>5.372549876535385</v>
+        <v>8.44409786265537</v>
       </c>
       <c r="E19">
-        <v>12.53372533313114</v>
+        <v>2.257454439433475</v>
       </c>
       <c r="F19">
-        <v>5.484102269551281</v>
+        <v>3.463508503907746</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.653193489223773</v>
+        <v>2.551624272116888</v>
       </c>
       <c r="C20">
-        <v>2.945322351625579</v>
+        <v>11.80153391354829</v>
       </c>
       <c r="D20">
-        <v>5.540679282424028</v>
+        <v>8.76663313518184</v>
       </c>
       <c r="E20">
-        <v>13.0538612384478</v>
+        <v>2.272987614975787</v>
       </c>
       <c r="F20">
-        <v>5.656626186343251</v>
+        <v>3.549771117378577</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.904899179152568</v>
+        <v>2.58282035541271</v>
       </c>
       <c r="C21">
-        <v>2.998118517484181</v>
+        <v>12.28106604679005</v>
       </c>
       <c r="D21">
-        <v>5.706201857431012</v>
+        <v>9.083893509405957</v>
       </c>
       <c r="E21">
-        <v>13.56461395412015</v>
+        <v>2.288599355877482</v>
       </c>
       <c r="F21">
-        <v>5.825952444634414</v>
+        <v>3.636306838530494</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.154811677355114</v>
+        <v>2.614128612116593</v>
       </c>
       <c r="C22">
-        <v>3.051058903810552</v>
+        <v>12.75406881446065</v>
       </c>
       <c r="D22">
-        <v>5.869078735069345</v>
+        <v>9.395777971276347</v>
       </c>
       <c r="E22">
-        <v>14.06583975336336</v>
+        <v>2.304285435202222</v>
       </c>
       <c r="F22">
-        <v>5.99203076879519</v>
+        <v>3.72309140068855</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.402747325598093</v>
+        <v>2.645539124852322</v>
       </c>
       <c r="C23">
-        <v>3.104125170173879</v>
+        <v>13.22036044068472</v>
       </c>
       <c r="D23">
-        <v>6.029278971074751</v>
+        <v>9.70220459612433</v>
       </c>
       <c r="E23">
-        <v>14.55742792014116</v>
+        <v>2.320042201110547</v>
       </c>
       <c r="F23">
-        <v>6.154822591370885</v>
+        <v>3.810102441466245</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.648545905234416</v>
+        <v>2.677042665094573</v>
       </c>
       <c r="C24">
-        <v>3.15729918611492</v>
+        <v>13.67978633988487</v>
       </c>
       <c r="D24">
-        <v>6.186778960719399</v>
+        <v>10.00310902736219</v>
       </c>
       <c r="E24">
-        <v>15.03929793784904</v>
+        <v>2.335866577605318</v>
       </c>
       <c r="F24">
-        <v>6.314300019154116</v>
+        <v>3.897319392003337</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.892067793696793</v>
+        <v>2.708630680775732</v>
       </c>
       <c r="C25">
-        <v>3.210562835548228</v>
+        <v>14.13221700969377</v>
       </c>
       <c r="D25">
-        <v>6.341561876888059</v>
+        <v>10.29844304237489</v>
       </c>
       <c r="E25">
-        <v>15.51139693280522</v>
+        <v>2.351756052757143</v>
       </c>
       <c r="F25">
-        <v>6.470444879874078</v>
+        <v>3.98472336927301</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.133191508458376</v>
+        <v>2.74029523960593</v>
       </c>
       <c r="C26">
-        <v>3.263897832725018</v>
+        <v>14.57754632905785</v>
       </c>
       <c r="D26">
-        <v>6.493617132155149</v>
+        <v>10.58817321345498</v>
       </c>
       <c r="E26">
-        <v>15.97369726902972</v>
+        <v>2.367708671662113</v>
       </c>
       <c r="F26">
-        <v>6.623247844959146</v>
+        <v>4.072297078812262</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.371811594497171</v>
+        <v>2.77202901583752</v>
       </c>
       <c r="C27">
-        <v>3.31728555257404</v>
+        <v>15.01569003114698</v>
       </c>
       <c r="D27">
-        <v>6.642939866006509</v>
+        <v>10.87227965746209</v>
       </c>
       <c r="E27">
-        <v>16.42619427928658</v>
+        <v>2.383723039815695</v>
       </c>
       <c r="F27">
-        <v>6.772707598514797</v>
+        <v>4.1600247183384</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.607836791569232</v>
+        <v>2.803825250030536</v>
       </c>
       <c r="C28">
-        <v>3.370706879753528</v>
+        <v>15.44658315587485</v>
       </c>
       <c r="D28">
-        <v>6.789530459477378</v>
+        <v>11.1507548685082</v>
       </c>
       <c r="E28">
-        <v>16.86890415868344</v>
+        <v>2.399798319123729</v>
       </c>
       <c r="F28">
-        <v>6.918830064871722</v>
+        <v>4.247891863360372</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8.841188446495</v>
+        <v>2.835677719471779</v>
       </c>
       <c r="C29">
-        <v>3.424142089852593</v>
+        <v>15.87017846616356</v>
       </c>
       <c r="D29">
-        <v>6.933394078878437</v>
+        <v>11.42360260341668</v>
       </c>
       <c r="E29">
-        <v>17.30186194753704</v>
+        <v>2.415934231154436</v>
       </c>
       <c r="F29">
-        <v>7.061627715975257</v>
+        <v>4.335885362211877</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.071799177853341</v>
+        <v>2.86758071294827</v>
       </c>
       <c r="C30">
-        <v>3.477570765420624</v>
+        <v>16.2864454959923</v>
       </c>
       <c r="D30">
-        <v>7.074540245783567</v>
+        <v>11.69083685784046</v>
       </c>
       <c r="E30">
-        <v>17.72511966367946</v>
+        <v>2.432131065562689</v>
       </c>
       <c r="F30">
-        <v>7.201118926201436</v>
+        <v>4.42399322329651</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.299611690425314</v>
+        <v>2.89952900171015</v>
       </c>
       <c r="C31">
-        <v>3.530971750937338</v>
+        <v>16.69536919381787</v>
       </c>
       <c r="D31">
-        <v>7.212982429741978</v>
+        <v>11.95248090092382</v>
       </c>
       <c r="E31">
-        <v>18.13874462468632</v>
+        <v>2.448389680457071</v>
       </c>
       <c r="F31">
-        <v>7.337327369746987</v>
+        <v>4.512204502815352</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.524577731226923</v>
+        <v>2.93151781331991</v>
       </c>
       <c r="C32">
-        <v>3.584323149720376</v>
+        <v>17.09694836573359</v>
       </c>
       <c r="D32">
-        <v>7.348737671572368</v>
+        <v>12.20856633769965</v>
       </c>
       <c r="E32">
-        <v>18.5428178583095</v>
+        <v>2.464711516897202</v>
       </c>
       <c r="F32">
-        <v>7.470281451527314</v>
+        <v>4.600509190574116</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.746657188021608</v>
+        <v>2.963542813685576</v>
       </c>
       <c r="C33">
-        <v>3.637602359641456</v>
+        <v>17.49119453695405</v>
       </c>
       <c r="D33">
-        <v>7.481826234845852</v>
+        <v>12.45913239239933</v>
       </c>
       <c r="E33">
-        <v>18.93743260361171</v>
+        <v>2.481098610452872</v>
       </c>
       <c r="F33">
-        <v>7.60001378997137</v>
+        <v>4.688898093395499</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.965817298775379</v>
+        <v>2.995600077391825</v>
       </c>
       <c r="C34">
-        <v>3.690786144342838</v>
+        <v>17.87813057511226</v>
       </c>
       <c r="D34">
-        <v>7.612271279327962</v>
+        <v>12.70422508050948</v>
       </c>
       <c r="E34">
-        <v>19.32269299748301</v>
+        <v>2.497553599911114</v>
       </c>
       <c r="F34">
-        <v>7.726560729788576</v>
+        <v>4.777362716240011</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10.18203194757752</v>
+        <v>3.027686072271944</v>
       </c>
       <c r="C35">
-        <v>3.743850747334325</v>
+        <v>18.25778954704563</v>
       </c>
       <c r="D35">
-        <v>7.740098553226061</v>
+        <v>12.94389649417921</v>
       </c>
       <c r="E35">
-        <v>19.6987127637952</v>
+        <v>2.514079753314655</v>
       </c>
       <c r="F35">
-        <v>7.849961909406728</v>
+        <v>4.865895142475454</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10.39528102669767</v>
+        <v>3.059797636405652</v>
       </c>
       <c r="C36">
-        <v>3.796772022819967</v>
+        <v>18.63021409199817</v>
       </c>
       <c r="D36">
-        <v>7.865336108563174</v>
+        <v>13.17820412619371</v>
       </c>
       <c r="E36">
-        <v>20.06561402181958</v>
+        <v>2.530680985323015</v>
       </c>
       <c r="F36">
-        <v>7.970259853747937</v>
+        <v>4.954487914879685</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10.60554986884775</v>
+        <v>3.091931956467977</v>
       </c>
       <c r="C37">
-        <v>3.849525588986005</v>
+        <v>18.99545559174929</v>
       </c>
       <c r="D37">
-        <v>7.988014038863856</v>
+        <v>13.40721026215714</v>
       </c>
       <c r="E37">
-        <v>20.42352623125768</v>
+        <v>2.547361877574351</v>
       </c>
       <c r="F37">
-        <v>8.087499598013412</v>
+        <v>5.043133918868174</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10.8128287460854</v>
+        <v>3.124086552131366</v>
       </c>
       <c r="C38">
-        <v>3.90208699630809</v>
+        <v>19.35357309437372</v>
       </c>
       <c r="D38">
-        <v>8.108164236270051</v>
+        <v>13.63098141440755</v>
       </c>
       <c r="E38">
-        <v>20.7725851659583</v>
+        <v>2.564127715729823</v>
       </c>
       <c r="F38">
-        <v>8.201728341964898</v>
+        <v>5.131826269180428</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11.01711244201731</v>
+        <v>3.156259256069024</v>
       </c>
       <c r="C39">
-        <v>3.954431899861824</v>
+        <v>19.70463256152769</v>
       </c>
       <c r="D39">
-        <v>8.225820166856611</v>
+        <v>13.84958779270877</v>
       </c>
       <c r="E39">
-        <v>21.11293205159618</v>
+        <v>2.580984511976802</v>
       </c>
       <c r="F39">
-        <v>8.312995132767</v>
+        <v>5.220558202025116</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11.21839983840365</v>
+        <v>3.188448197894382</v>
       </c>
       <c r="C40">
-        <v>4.006536228644286</v>
+        <v>20.04870597317614</v>
       </c>
       <c r="D40">
-        <v>8.341016664276877</v>
+        <v>14.06310282610664</v>
       </c>
       <c r="E40">
-        <v>21.44471271242729</v>
+        <v>2.597939044590476</v>
       </c>
       <c r="F40">
-        <v>8.421350574823549</v>
+        <v>5.309322974921062</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.41669352642169</v>
+        <v>3.220651789493866</v>
       </c>
       <c r="C41">
-        <v>4.058376347987763</v>
+        <v>20.3858707055218</v>
       </c>
       <c r="D41">
-        <v>8.453789745604336</v>
+        <v>14.27160272165654</v>
       </c>
       <c r="E41">
-        <v>21.76807679522282</v>
+        <v>2.614998902940867</v>
       </c>
       <c r="F41">
-        <v>8.526846564112342</v>
+        <v>5.398113774814261</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11.61199947074847</v>
+        <v>3.252868706668429</v>
       </c>
       <c r="C42">
-        <v>4.109929209779018</v>
+        <v>20.71620895278889</v>
       </c>
       <c r="D42">
-        <v>8.564176414216146</v>
+        <v>14.47516605057885</v>
       </c>
       <c r="E42">
-        <v>22.08317707226671</v>
+        <v>2.632172520898315</v>
       </c>
       <c r="F42">
-        <v>8.62953604377671</v>
+        <v>5.486923636763241</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.80432670259053</v>
+        <v>3.285097877898123</v>
       </c>
       <c r="C43">
-        <v>4.161172485094526</v>
+        <v>21.03980716234981</v>
       </c>
       <c r="D43">
-        <v>8.672214505070157</v>
+        <v>14.67387335959558</v>
       </c>
       <c r="E43">
-        <v>22.39016877461539</v>
+        <v>2.649469238272304</v>
       </c>
       <c r="F43">
-        <v>8.729472785772881</v>
+        <v>5.575745374497229</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11.99368704061595</v>
+        <v>3.317338468753284</v>
       </c>
       <c r="C44">
-        <v>4.212084678087351</v>
+        <v>21.35675548691933</v>
       </c>
       <c r="D44">
-        <v>8.77794255317103</v>
+        <v>14.86780683013318</v>
       </c>
       <c r="E44">
-        <v>22.68920903889105</v>
+        <v>2.666899355824362</v>
       </c>
       <c r="F44">
-        <v>8.826711187065317</v>
+        <v>5.664571524392907</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12.18009483506422</v>
+        <v>3.349589867718046</v>
       </c>
       <c r="C45">
-        <v>4.262645223208309</v>
+        <v>21.66714729590922</v>
       </c>
       <c r="D45">
-        <v>8.88139959854246</v>
+        <v>15.05704997245738</v>
       </c>
       <c r="E45">
-        <v>22.98045636406967</v>
+        <v>2.684474183300551</v>
       </c>
       <c r="F45">
-        <v>8.921306086054114</v>
+        <v>5.753394299833982</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>12.36356672898857</v>
+        <v>3.381851675760125</v>
       </c>
       <c r="C46">
-        <v>4.312834561739447</v>
+        <v>21.97107870564058</v>
       </c>
       <c r="D46">
-        <v>8.982625165083624</v>
+        <v>15.24168732851566</v>
       </c>
       <c r="E46">
-        <v>23.26407012701537</v>
+        <v>2.702206126637777</v>
       </c>
       <c r="F46">
-        <v>9.013312596125807</v>
+        <v>5.842205565202826</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>12.54412144111579</v>
+        <v>3.414123691828579</v>
       </c>
       <c r="C47">
-        <v>4.362634199132764</v>
+        <v>22.26864803945934</v>
       </c>
       <c r="D47">
-        <v>9.08165904189009</v>
+        <v>15.42180419966389</v>
       </c>
       <c r="E47">
-        <v>23.54021014849434</v>
+        <v>2.720108749673296</v>
       </c>
       <c r="F47">
-        <v>9.102785955016728</v>
+        <v>5.930996818941915</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.72177957333619</v>
+        <v>3.446405902592183</v>
       </c>
       <c r="C48">
-        <v>4.412026735563214</v>
+        <v>22.55995569100345</v>
       </c>
       <c r="D48">
-        <v>9.178541262451459</v>
+        <v>15.5974864128194</v>
       </c>
       <c r="E48">
-        <v>23.80903628151366</v>
+        <v>2.738196853397374</v>
       </c>
       <c r="F48">
-        <v>9.189781389155126</v>
+        <v>6.019759190931032</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12.89656341344175</v>
+        <v>3.478698471331525</v>
       </c>
       <c r="C49">
-        <v>4.46099588733877</v>
+        <v>22.84510325414278</v>
       </c>
       <c r="D49">
-        <v>9.273311965680413</v>
+        <v>15.76882010390006</v>
       </c>
       <c r="E49">
-        <v>24.0707080766216</v>
+        <v>2.756486577347884</v>
       </c>
       <c r="F49">
-        <v>9.274354001632691</v>
+        <v>6.10848345204611</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>13.06849678688479</v>
+        <v>3.511001725819528</v>
       </c>
       <c r="C50">
-        <v>4.509526495882107</v>
+        <v>23.12419401152895</v>
       </c>
       <c r="D50">
-        <v>9.366011305514807</v>
+        <v>15.93589151477373</v>
       </c>
       <c r="E50">
-        <v>24.3253844498213</v>
+        <v>2.774995475834705</v>
       </c>
       <c r="F50">
-        <v>9.356558633244243</v>
+        <v>6.197160035081372</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>13.23760481815373</v>
+        <v>3.543316150420798</v>
       </c>
       <c r="C51">
-        <v>4.557604522042631</v>
+        <v>23.39733162987796</v>
       </c>
       <c r="D51">
-        <v>9.456679398886584</v>
+        <v>16.09878680547375</v>
       </c>
       <c r="E51">
-        <v>24.57322339636123</v>
+        <v>2.793742632149766</v>
       </c>
       <c r="F51">
-        <v>9.436449810361742</v>
+        <v>6.285779063224367</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>13.40391388959949</v>
+        <v>3.575642374322736</v>
       </c>
       <c r="C52">
-        <v>4.605217029728692</v>
+        <v>23.66462098976128</v>
       </c>
       <c r="D52">
-        <v>9.545356201028364</v>
+        <v>16.25759189899431</v>
       </c>
       <c r="E52">
-        <v>24.81438173305844</v>
+        <v>2.812748767998688</v>
       </c>
       <c r="F52">
-        <v>9.514081570015225</v>
+        <v>6.37433038941695</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>13.56745151716218</v>
+        <v>3.607981162244664</v>
       </c>
       <c r="C53">
-        <v>4.652352280406735</v>
+        <v>23.92616691545449</v>
       </c>
       <c r="D53">
-        <v>9.632081524985187</v>
+        <v>16.41239233479893</v>
       </c>
       <c r="E53">
-        <v>25.04901486561633</v>
+        <v>2.832036338664411</v>
       </c>
       <c r="F53">
-        <v>9.589507497338513</v>
+        <v>6.46280364222338</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13.72824614785973</v>
+        <v>3.640333405787397</v>
       </c>
       <c r="C54">
-        <v>4.699000947624907</v>
+        <v>24.18207481241436</v>
       </c>
       <c r="D54">
-        <v>9.716894918323312</v>
+        <v>16.5632731342605</v>
       </c>
       <c r="E54">
-        <v>25.2772765962328</v>
+        <v>2.851629670525638</v>
       </c>
       <c r="F54">
-        <v>9.662780552052681</v>
+        <v>6.551188272056265</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>13.88632707984295</v>
+        <v>3.672700113291336</v>
       </c>
       <c r="C55">
-        <v>4.745156987347992</v>
+        <v>24.43244977026105</v>
       </c>
       <c r="D55">
-        <v>9.799835652393591</v>
+        <v>16.71031867613</v>
       </c>
       <c r="E55">
-        <v>25.49931893851727</v>
+        <v>2.871555067148582</v>
       </c>
       <c r="F55">
-        <v>9.733953088155022</v>
+        <v>6.639473597932546</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14.04172435686995</v>
+        <v>3.705082401912775</v>
       </c>
       <c r="C56">
-        <v>4.790817240345429</v>
+        <v>24.67739689837439</v>
       </c>
       <c r="D56">
-        <v>9.880942661281994</v>
+        <v>16.85361259781417</v>
       </c>
       <c r="E56">
-        <v>25.71529196205408</v>
+        <v>2.891840923751425</v>
       </c>
       <c r="F56">
-        <v>9.803076766980649</v>
+        <v>6.727648858528568</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>14.19446867179184</v>
+        <v>3.737481488841353</v>
       </c>
       <c r="C57">
-        <v>4.835981038654431</v>
+        <v>24.91702070938958</v>
       </c>
       <c r="D57">
-        <v>9.96025446438337</v>
+        <v>16.99323770009476</v>
       </c>
       <c r="E57">
-        <v>25.92534367890982</v>
+        <v>2.912517842664914</v>
       </c>
       <c r="F57">
-        <v>9.870202498859859</v>
+        <v>6.815703270824727</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.34459127525042</v>
+        <v>3.769898682173316</v>
       </c>
       <c r="C58">
-        <v>4.880649884536118</v>
+        <v>25.15142537664529</v>
       </c>
       <c r="D58">
-        <v>10.03780917998509</v>
+        <v>17.12927586272203</v>
       </c>
       <c r="E58">
-        <v>26.12961985582239</v>
+        <v>2.933618718991325</v>
       </c>
       <c r="F58">
-        <v>9.935380436960486</v>
+        <v>6.903626069299336</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>14.49212389658585</v>
+        <v>3.802335373466065</v>
       </c>
       <c r="C59">
-        <v>4.924827175744669</v>
+        <v>25.38071417152998</v>
       </c>
       <c r="D59">
-        <v>10.11364448393459</v>
+        <v>17.26180796601228</v>
       </c>
       <c r="E59">
-        <v>26.32826404244438</v>
+        <v>2.955178833322076</v>
       </c>
       <c r="F59">
-        <v>9.998659898871352</v>
+        <v>6.991406568590138</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>14.63709866033809</v>
+        <v>3.834793028647241</v>
       </c>
       <c r="C60">
-        <v>4.968517964718159</v>
+        <v>25.60498979162607</v>
       </c>
       <c r="D60">
-        <v>10.18779757330704</v>
+        <v>17.39091383813047</v>
       </c>
       <c r="E60">
-        <v>26.52141724023072</v>
+        <v>2.977235855742126</v>
       </c>
       <c r="F60">
-        <v>10.06008937731846</v>
+        <v>7.079034201338081</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14.77954802118801</v>
+        <v>3.867273180004244</v>
       </c>
       <c r="C61">
-        <v>5.011728744524667</v>
+        <v>25.8243537977582</v>
       </c>
       <c r="D61">
-        <v>10.26030513844186</v>
+        <v>17.51667219987814</v>
       </c>
       <c r="E61">
-        <v>26.70921817603594</v>
+        <v>2.999829895930955</v>
       </c>
       <c r="F61">
-        <v>10.11971648502228</v>
+        <v>7.166498550757909</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>14.91950470613932</v>
+        <v>3.899777417750799</v>
       </c>
       <c r="C62">
-        <v>5.054467257281286</v>
+        <v>26.03890695196734</v>
       </c>
       <c r="D62">
-        <v>10.33120334634723</v>
+        <v>17.63916058243565</v>
       </c>
       <c r="E62">
-        <v>26.89180286747725</v>
+        <v>3.023003405395042</v>
       </c>
       <c r="F62">
-        <v>10.17758795480973</v>
+        <v>7.25378940782849</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>15.05700164441579</v>
+        <v>3.932307381548721</v>
       </c>
       <c r="C63">
-        <v>5.096742321672038</v>
+        <v>26.24874875165667</v>
       </c>
       <c r="D63">
-        <v>10.40052782396374</v>
+        <v>17.75845534390093</v>
       </c>
       <c r="E63">
-        <v>27.06930494913733</v>
+        <v>3.046800955848999</v>
       </c>
       <c r="F63">
-        <v>10.23374962659751</v>
+        <v>7.340896768032145</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>15.19207190879837</v>
+        <v>3.964864752066949</v>
       </c>
       <c r="C64">
-        <v>5.13856367746438</v>
+        <v>26.45397765714281</v>
       </c>
       <c r="D64">
-        <v>10.46831363750886</v>
+        <v>17.87463153456849</v>
       </c>
       <c r="E64">
-        <v>27.24185532478332</v>
+        <v>3.071269243823625</v>
       </c>
       <c r="F64">
-        <v>10.28824641455235</v>
+        <v>7.427810893305881</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>15.32474866843291</v>
+        <v>3.997451242038432</v>
       </c>
       <c r="C65">
-        <v>5.179941844798814</v>
+        <v>26.65469079880496</v>
       </c>
       <c r="D65">
-        <v>10.5345952929368</v>
+        <v>17.98776301885304</v>
       </c>
       <c r="E65">
-        <v>27.40958238350859</v>
+        <v>3.096456351802517</v>
       </c>
       <c r="F65">
-        <v>10.34112232476422</v>
+        <v>7.514522305885691</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>15.45506514296066</v>
+        <v>4.030068587827732</v>
       </c>
       <c r="C66">
-        <v>5.220887997201453</v>
+        <v>26.85098407535495</v>
       </c>
       <c r="D66">
-        <v>10.59940671710971</v>
+        <v>18.09792227578335</v>
       </c>
       <c r="E66">
-        <v>27.57261179836068</v>
+        <v>3.12241133227044</v>
       </c>
       <c r="F66">
-        <v>10.39242042509823</v>
+        <v>7.601021823351773</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>15.58305453526981</v>
+        <v>4.062718539618513</v>
       </c>
       <c r="C67">
-        <v>5.261413846947902</v>
+        <v>27.04295198764863</v>
       </c>
       <c r="D67">
-        <v>10.66278124576335</v>
+        <v>18.20518056458717</v>
       </c>
       <c r="E67">
-        <v>27.73106662277366</v>
+        <v>3.149183471645508</v>
       </c>
       <c r="F67">
-        <v>10.44218286849684</v>
+        <v>7.687300571022617</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>15.7087500684331</v>
+        <v>4.095402852619861</v>
       </c>
       <c r="C68">
-        <v>5.301531541106852</v>
+        <v>27.23068767818667</v>
       </c>
       <c r="D68">
-        <v>10.72475162631252</v>
+        <v>18.30960774858366</v>
       </c>
       <c r="E68">
-        <v>27.8850672188616</v>
+        <v>3.176821357748179</v>
       </c>
       <c r="F68">
-        <v>10.49045086876432</v>
+        <v>7.7733499786213</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>15.8321848739776</v>
+        <v>4.128123277119075</v>
       </c>
       <c r="C69">
-        <v>5.34125356798258</v>
+        <v>27.41428283453448</v>
       </c>
       <c r="D69">
-        <v>10.78535000394411</v>
+        <v>18.41127241676324</v>
       </c>
       <c r="E69">
-        <v>28.03473132366725</v>
+        <v>3.205371695960379</v>
       </c>
       <c r="F69">
-        <v>10.53726471319052</v>
+        <v>7.859161817476408</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>15.95339200318231</v>
+        <v>4.160881546925814</v>
       </c>
       <c r="C70">
-        <v>5.380592672872305</v>
+        <v>27.59382769751774</v>
       </c>
       <c r="D70">
-        <v>10.84460792195901</v>
+        <v>18.51024177384475</v>
       </c>
       <c r="E70">
-        <v>28.18017399539992</v>
+        <v>3.234877931428247</v>
       </c>
       <c r="F70">
-        <v>10.58266377026031</v>
+        <v>7.944728165291293</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>16.0724043307971</v>
+        <v>4.193679370820325</v>
       </c>
       <c r="C71">
-        <v>5.41956178132944</v>
+        <v>27.76941102019525</v>
       </c>
       <c r="D71">
-        <v>10.90255632275374</v>
+        <v>18.60658170234614</v>
       </c>
       <c r="E71">
-        <v>28.3215076822199</v>
+        <v>3.265378656592417</v>
       </c>
       <c r="F71">
-        <v>10.62668648118592</v>
+        <v>8.030041447742168</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>16.18925457922544</v>
+        <v>4.226518420464276</v>
       </c>
       <c r="C72">
-        <v>5.458173930772954</v>
+        <v>27.94112004712326</v>
       </c>
       <c r="D72">
-        <v>10.95922554707146</v>
+        <v>18.70035671472966</v>
       </c>
       <c r="E72">
-        <v>28.45884220472428</v>
+        <v>3.296905957991138</v>
       </c>
       <c r="F72">
-        <v>10.66937038487547</v>
+        <v>8.115094400484359</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>16.30397528727318</v>
+        <v>4.259400318791092</v>
       </c>
       <c r="C73">
-        <v>5.496442209895272</v>
+        <v>28.10904051939198</v>
       </c>
       <c r="D73">
-        <v>11.0146453339888</v>
+        <v>18.79163000912864</v>
       </c>
       <c r="E73">
-        <v>28.59228480105586</v>
+        <v>3.329483751902234</v>
       </c>
       <c r="F73">
-        <v>10.71075210995047</v>
+        <v>8.199880097308931</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>16.41659879083326</v>
+        <v>4.292326629119925</v>
       </c>
       <c r="C74">
-        <v>5.534379702977406</v>
+        <v>28.27325662686802</v>
       </c>
       <c r="D74">
-        <v>11.06884482503973</v>
+        <v>18.88046341270761</v>
       </c>
       <c r="E74">
-        <v>28.72194014530135</v>
+        <v>3.363126231606103</v>
       </c>
       <c r="F74">
-        <v>10.750867397639</v>
+        <v>8.284391921424206</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>16.5271572038141</v>
+        <v>4.325298840679674</v>
       </c>
       <c r="C75">
-        <v>5.571999440588972</v>
+        <v>28.43385103945756</v>
       </c>
       <c r="D75">
-        <v>11.12185256570572</v>
+        <v>18.96691745312435</v>
       </c>
       <c r="E75">
-        <v>28.8479103703073</v>
+        <v>3.397836586290507</v>
       </c>
       <c r="F75">
-        <v>10.78975110340883</v>
+        <v>8.368623576314951</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>16.63568238493058</v>
+        <v>4.358318357625263</v>
       </c>
       <c r="C76">
-        <v>5.609314355671043</v>
+        <v>28.59090486852502</v>
       </c>
       <c r="D76">
-        <v>11.17369650892584</v>
+        <v>19.05105130871694</v>
       </c>
       <c r="E76">
-        <v>28.97029511770998</v>
+        <v>3.433606147221909</v>
       </c>
       <c r="F76">
-        <v>10.82743721275167</v>
+        <v>8.452569069231629</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>16.74220593531843</v>
+        <v>4.391386484304713</v>
       </c>
       <c r="C77">
-        <v>5.646337244666593</v>
+        <v>28.74449770835353</v>
       </c>
       <c r="D77">
-        <v>11.22440402164295</v>
+        <v>19.13292287521193</v>
       </c>
       <c r="E77">
-        <v>29.0891915438609</v>
+        <v>3.470414089499815</v>
       </c>
       <c r="F77">
-        <v>10.86395885450824</v>
+        <v>8.536222706225118</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>16.84675916377384</v>
+        <v>4.424504412052141</v>
       </c>
       <c r="C78">
-        <v>5.683080732654574</v>
+        <v>28.89470759028939</v>
       </c>
       <c r="D78">
-        <v>11.27400189573781</v>
+        <v>19.21258872993999</v>
       </c>
       <c r="E78">
-        <v>29.20469439073062</v>
+        <v>3.508227774595623</v>
       </c>
       <c r="F78">
-        <v>10.89934830883249</v>
+        <v>8.619579086100705</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>16.9493730896423</v>
+        <v>4.457673204538686</v>
       </c>
       <c r="C79">
-        <v>5.719557242793762</v>
+        <v>29.04161103843105</v>
       </c>
       <c r="D79">
-        <v>11.3225163336741</v>
+        <v>19.29010418615307</v>
       </c>
       <c r="E79">
-        <v>29.31689598748585</v>
+        <v>3.547003563169715</v>
       </c>
       <c r="F79">
-        <v>10.93363702811124</v>
+        <v>8.702633085112934</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>17.05007842031153</v>
+        <v>4.490893783405914</v>
       </c>
       <c r="C80">
-        <v>5.755778969402019</v>
+        <v>29.18528302836411</v>
       </c>
       <c r="D80">
-        <v>11.36997298530109</v>
+        <v>19.36552327519932</v>
       </c>
       <c r="E80">
-        <v>29.42588632700316</v>
+        <v>3.586688730869907</v>
       </c>
       <c r="F80">
-        <v>10.96685564462831</v>
+        <v>8.785379855185393</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>17.14890554044406</v>
+        <v>4.524166914169863</v>
       </c>
       <c r="C81">
-        <v>5.791757854932736</v>
+        <v>29.32579704459089</v>
       </c>
       <c r="D81">
-        <v>11.41639692274907</v>
+        <v>19.43889879030212</v>
       </c>
       <c r="E81">
-        <v>29.53175307408245</v>
+        <v>3.627223217168134</v>
       </c>
       <c r="F81">
-        <v>10.99903399041731</v>
+        <v>8.867814806811518</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>17.24588451282831</v>
+        <v>4.557493191628168</v>
       </c>
       <c r="C82">
-        <v>5.827505568635279</v>
+        <v>29.46322504633234</v>
       </c>
       <c r="D82">
-        <v>11.46181266717839</v>
+        <v>19.51028227958654</v>
       </c>
       <c r="E82">
-        <v>29.63458163661202</v>
+        <v>3.668541718968584</v>
       </c>
       <c r="F82">
-        <v>11.03020110893795</v>
+        <v>8.949933604715659</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>17.34104505335652</v>
+        <v>4.590873025396647</v>
       </c>
       <c r="C83">
-        <v>5.863033487997191</v>
+        <v>29.59763752420332</v>
       </c>
       <c r="D83">
-        <v>11.50624420255728</v>
+        <v>19.57972408632784</v>
       </c>
       <c r="E83">
-        <v>29.73445518507001</v>
+        <v>3.710576018641172</v>
       </c>
       <c r="F83">
-        <v>11.06038527194438</v>
+        <v>9.031732154147731</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>17.43441654395746</v>
+        <v>4.624306625840789</v>
       </c>
       <c r="C84">
-        <v>5.898352684983784</v>
+        <v>29.72910347440902</v>
       </c>
       <c r="D84">
-        <v>11.54971495321851</v>
+        <v>19.64727334709231</v>
       </c>
       <c r="E84">
-        <v>29.83145471475768</v>
+        <v>3.753257146126117</v>
       </c>
       <c r="F84">
-        <v>11.0896139968851</v>
+        <v>9.113206596024625</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>17.52602800318772</v>
+        <v>4.65779399055698</v>
       </c>
       <c r="C85">
-        <v>5.933473912970376</v>
+        <v>29.85769045340599</v>
       </c>
       <c r="D85">
-        <v>11.59224783927764</v>
+        <v>19.71297803094174</v>
       </c>
       <c r="E85">
-        <v>29.92565907601617</v>
+        <v>3.796517208284728</v>
       </c>
       <c r="F85">
-        <v>11.11791405702017</v>
+        <v>9.194353292323076</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>17.61590810572811</v>
+        <v>4.691334891654278</v>
       </c>
       <c r="C86">
-        <v>5.968407536621681</v>
+        <v>29.9834645592419</v>
       </c>
       <c r="D86">
-        <v>11.63386525638134</v>
+        <v>19.77688494136277</v>
       </c>
       <c r="E86">
-        <v>30.01714502861986</v>
+        <v>3.840290855700156</v>
       </c>
       <c r="F86">
-        <v>11.14531150088272</v>
+        <v>9.27516881955372</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>17.70408516005509</v>
+        <v>4.724928864286944</v>
       </c>
       <c r="C87">
-        <v>6.003162820204618</v>
+        <v>30.10649048371453</v>
       </c>
       <c r="D87">
-        <v>11.67458908080197</v>
+        <v>19.83903975275891</v>
       </c>
       <c r="E87">
-        <v>30.10598727945175</v>
+        <v>3.884516403839206</v>
       </c>
       <c r="F87">
-        <v>11.17183167060287</v>
+        <v>9.355649960778525</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>17.79058710769731</v>
+        <v>4.758575196244561</v>
       </c>
       <c r="C88">
-        <v>6.037747390775172</v>
+        <v>30.22683150079453</v>
       </c>
       <c r="D88">
-        <v>11.71444066807202</v>
+        <v>19.89948701752144</v>
       </c>
       <c r="E88">
-        <v>30.19225853193501</v>
+        <v>3.929136579415436</v>
       </c>
       <c r="F88">
-        <v>11.19749920708436</v>
+        <v>9.435793694355619</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>17.8754415213429</v>
+        <v>4.792272918837257</v>
       </c>
       <c r="C89">
-        <v>6.072167220429457</v>
+        <v>30.34454951490342</v>
       </c>
       <c r="D89">
-        <v>11.75344085707575</v>
+        <v>19.95827019792296</v>
       </c>
       <c r="E89">
-        <v>30.2760295276203</v>
+        <v>3.974098916254742</v>
       </c>
       <c r="F89">
-        <v>11.22233808112843</v>
+        <v>9.515597185197501</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>17.95867560233474</v>
+        <v>4.826020800636438</v>
       </c>
       <c r="C90">
-        <v>6.106426842767601</v>
+        <v>30.45970505658146</v>
       </c>
       <c r="D90">
-        <v>11.79161009497705</v>
+        <v>20.01543167857664</v>
       </c>
       <c r="E90">
-        <v>30.35736909285208</v>
+        <v>4.019355890387353</v>
       </c>
       <c r="F90">
-        <v>11.24637159891255</v>
+        <v>9.595057777145161</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>18.04031617890627</v>
+        <v>4.859817342183216</v>
       </c>
       <c r="C91">
-        <v>6.140529366945213</v>
+        <v>30.57235732591865</v>
       </c>
       <c r="D91">
-        <v>11.8289683569888</v>
+        <v>20.07101279399781</v>
       </c>
       <c r="E91">
-        <v>30.43634418163666</v>
+        <v>4.064864828062588</v>
       </c>
       <c r="F91">
-        <v>11.26962241736451</v>
+        <v>9.674172990637869</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>18.12038970488145</v>
+        <v>4.893660772534432</v>
       </c>
       <c r="C92">
-        <v>6.174476616711727</v>
+        <v>30.6825641951855</v>
       </c>
       <c r="D92">
-        <v>11.86553508408169</v>
+        <v>20.12505384504246</v>
       </c>
       <c r="E92">
-        <v>30.51301992102925</v>
+        <v>4.110587676079979</v>
       </c>
       <c r="F92">
-        <v>11.29211256745893</v>
+        <v>9.752940500763311</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>18.1989222589554</v>
+        <v>4.927549048386568</v>
       </c>
       <c r="C93">
-        <v>6.208269261385588</v>
+        <v>30.79038224739208</v>
       </c>
       <c r="D93">
-        <v>11.90132923998734</v>
+        <v>20.17759412356355</v>
       </c>
       <c r="E93">
-        <v>30.58745965089551</v>
+        <v>4.156490667478622</v>
       </c>
       <c r="F93">
-        <v>11.31386346240713</v>
+        <v>9.831358144606471</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>18.27593954474388</v>
+        <v>4.961479856420818</v>
       </c>
       <c r="C94">
-        <v>6.241906904646553</v>
+        <v>30.8958667848411</v>
       </c>
       <c r="D94">
-        <v>11.93636935425424</v>
+        <v>20.22867193117634</v>
       </c>
       <c r="E94">
-        <v>30.65972497361324</v>
+        <v>4.202543933202904</v>
       </c>
       <c r="F94">
-        <v>11.33489591516394</v>
+        <v>9.909423912921852</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>18.35146689079235</v>
+        <v>4.99545061762241</v>
       </c>
       <c r="C95">
-        <v>6.275388164785007</v>
+        <v>30.99907186341183</v>
       </c>
       <c r="D95">
-        <v>11.97067353141648</v>
+        <v>20.27832460193622</v>
       </c>
       <c r="E95">
-        <v>30.72987579697554</v>
+        <v>4.248721093023441</v>
       </c>
       <c r="F95">
-        <v>11.35523015220724</v>
+        <v>9.987135927601043</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>18.42552925136524</v>
+        <v>5.029458493966735</v>
       </c>
       <c r="C96">
-        <v>6.308710748080015</v>
+        <v>31.10005030585669</v>
       </c>
       <c r="D96">
-        <v>12.0042594500502</v>
+        <v>20.3265885226409</v>
       </c>
       <c r="E96">
-        <v>30.79797035509975</v>
+        <v>4.294998848020287</v>
       </c>
       <c r="F96">
-        <v>11.37488583383053</v>
+        <v>10.06449245954222</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>18.49815120722868</v>
+        <v>5.06350039750911</v>
       </c>
       <c r="C97">
-        <v>6.341871542521826</v>
+        <v>31.19885373236356</v>
       </c>
       <c r="D97">
-        <v>12.0371443693045</v>
+        <v>20.37349915356126</v>
       </c>
       <c r="E97">
-        <v>30.8640652899439</v>
+        <v>4.341356592834154</v>
       </c>
       <c r="F97">
-        <v>11.39388205703456</v>
+        <v>10.1414919044162</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>18.56935696691756</v>
+        <v>5.097573001154423</v>
       </c>
       <c r="C98">
-        <v>6.37486670573994</v>
+        <v>31.29553257770982</v>
       </c>
       <c r="D98">
-        <v>12.06934513565123</v>
+        <v>20.41909105014946</v>
       </c>
       <c r="E98">
-        <v>30.92821566764187</v>
+        <v>4.387776058712188</v>
       </c>
       <c r="F98">
-        <v>11.41223738230525</v>
+        <v>10.21813277745063</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.63917036872663</v>
+        <v>5.131672752597192</v>
       </c>
       <c r="C99">
-        <v>6.407691735675458</v>
+        <v>31.39013611829093</v>
       </c>
       <c r="D99">
-        <v>12.10087818374282</v>
+        <v>20.46339788161814</v>
       </c>
       <c r="E99">
-        <v>30.99047499354105</v>
+        <v>4.434240991270096</v>
       </c>
       <c r="F99">
-        <v>11.42996984259544</v>
+        <v>10.29441372922142</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>18.70761488401153</v>
+        <v>5.165795889378378</v>
       </c>
       <c r="C100">
-        <v>6.44034153112064</v>
+        <v>31.48271249267519</v>
       </c>
       <c r="D100">
-        <v>12.13175956322429</v>
+        <v>20.50645245365214</v>
       </c>
       <c r="E100">
-        <v>31.05089531654775</v>
+        <v>4.480736865964511</v>
       </c>
       <c r="F100">
-        <v>11.44709695071676</v>
+        <v>10.3703335088208</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>18.77471361719311</v>
+        <v>5.199938455744221</v>
       </c>
       <c r="C101">
-        <v>6.472810450827668</v>
+        <v>31.57330872537941</v>
       </c>
       <c r="D101">
-        <v>12.16200492340993</v>
+        <v>20.54828672324268</v>
       </c>
       <c r="E101">
-        <v>31.10952721932647</v>
+        <v>4.527250641293186</v>
       </c>
       <c r="F101">
-        <v>11.46363572708056</v>
+        <v>10.44589097910494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18.84048931007758</v>
+        <v>5.234096320797502</v>
       </c>
       <c r="C102">
-        <v>6.505092375015382</v>
+        <v>31.66197074970491</v>
       </c>
       <c r="D102">
-        <v>12.19162954925848</v>
+        <v>20.58893182751047</v>
       </c>
       <c r="E102">
-        <v>31.16641983996907</v>
+        <v>4.573770546845384</v>
       </c>
       <c r="F102">
-        <v>11.47960270044403</v>
+        <v>10.52108511487058</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18.9049643437629</v>
+        <v>5.268265197707045</v>
       </c>
       <c r="C103">
-        <v>6.537180766744858</v>
+        <v>31.74874342842629</v>
       </c>
       <c r="D103">
-        <v>12.2206483505065</v>
+        <v>20.62841809858977</v>
       </c>
       <c r="E103">
-        <v>31.22162097878148</v>
+        <v>4.62028590425421</v>
       </c>
       <c r="F103">
-        <v>11.49501392546364</v>
+        <v>10.59591497948046</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>18.96816074224344</v>
+        <v>5.302440663370402</v>
       </c>
       <c r="C104">
-        <v>6.569068729305581</v>
+        <v>31.83367057911598</v>
       </c>
       <c r="D104">
-        <v>12.24907587653489</v>
+        <v>20.66677506927123</v>
       </c>
       <c r="E104">
-        <v>31.27517707393229</v>
+        <v>4.666786975359956</v>
       </c>
       <c r="F104">
-        <v>11.50988500166606</v>
+        <v>10.67037973884801</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>19.03010017376762</v>
+        <v>5.336618179117354</v>
       </c>
       <c r="C105">
-        <v>6.600749056606546</v>
+        <v>31.9167949967954</v>
       </c>
       <c r="D105">
-        <v>12.27692633628983</v>
+        <v>20.70403152302493</v>
       </c>
       <c r="E105">
-        <v>31.32713323850207</v>
+        <v>4.713264836522326</v>
       </c>
       <c r="F105">
-        <v>11.52423106936012</v>
+        <v>10.74447865202495</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>19.09080395731289</v>
+        <v>5.370793111126051</v>
       </c>
       <c r="C106">
-        <v>6.632214279512725</v>
+        <v>31.99815846791255</v>
       </c>
       <c r="D106">
-        <v>12.30421357432938</v>
+        <v>20.74021549264443</v>
       </c>
       <c r="E106">
-        <v>31.37753334999086</v>
+        <v>4.759711273920094</v>
       </c>
       <c r="F106">
-        <v>11.5380668433138</v>
+        <v>10.81821105786001</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>19.15029306821904</v>
+        <v>5.404960749636874</v>
       </c>
       <c r="C107">
-        <v>6.663456712297612</v>
+        <v>32.07780180224709</v>
       </c>
       <c r="D107">
-        <v>12.33095112957434</v>
+        <v>20.77535425709219</v>
       </c>
       <c r="E107">
-        <v>31.42642002356633</v>
+        <v>4.806118697187497</v>
       </c>
       <c r="F107">
-        <v>11.55140661104675</v>
+        <v>10.89157638911008</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>19.20858812710285</v>
+        <v>5.439116329396915</v>
       </c>
       <c r="C108">
-        <v>6.69446849779935</v>
+        <v>32.15576485567083</v>
       </c>
       <c r="D108">
-        <v>12.3571521784754</v>
+        <v>20.80947441196706</v>
       </c>
       <c r="E108">
-        <v>31.47383466491032</v>
+        <v>4.85248006807958</v>
       </c>
       <c r="F108">
-        <v>11.56426424197691</v>
+        <v>10.96457415269279</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>19.2657094309566</v>
+        <v>5.473255049514109</v>
       </c>
       <c r="C109">
-        <v>6.725241650203727</v>
+        <v>32.23208653519707</v>
       </c>
       <c r="D109">
-        <v>12.38282960931253</v>
+        <v>20.84260185305027</v>
       </c>
       <c r="E109">
-        <v>31.51981753767614</v>
+        <v>4.898788839990655</v>
       </c>
       <c r="F109">
-        <v>11.57665321440832</v>
+        <v>11.03720393130333</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.321676920038</v>
+        <v>5.507372091870739</v>
       </c>
       <c r="C110">
-        <v>6.755768095525295</v>
+        <v>32.30680483305575</v>
       </c>
       <c r="D110">
-        <v>12.40799596721224</v>
+        <v>20.87476177094962</v>
       </c>
       <c r="E110">
-        <v>31.56440773812542</v>
+        <v>4.945038908857314</v>
       </c>
       <c r="F110">
-        <v>11.58858660879013</v>
+        <v>11.10946539051277</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>19.37651020526266</v>
+        <v>5.541462638317182</v>
       </c>
       <c r="C111">
-        <v>6.786039710374315</v>
+        <v>32.37995685609836</v>
       </c>
       <c r="D111">
-        <v>12.43266352022983</v>
+        <v>20.90597872742543</v>
       </c>
       <c r="E111">
-        <v>31.6076432647469</v>
+        <v>4.991224571828178</v>
       </c>
       <c r="F111">
-        <v>11.60007712928309</v>
+        <v>11.18135825730316</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>19.43022857900259</v>
+        <v>5.575521886718838</v>
       </c>
       <c r="C112">
-        <v>6.816048359646092</v>
+        <v>32.45157882152449</v>
       </c>
       <c r="D112">
-        <v>12.4568442140022</v>
+        <v>20.93627663411136</v>
       </c>
       <c r="E112">
-        <v>31.64956105960662</v>
+        <v>5.037340492457999</v>
       </c>
       <c r="F112">
-        <v>11.61113711649599</v>
+        <v>11.25288233013218</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>19.4828510047645</v>
+        <v>5.609545066451533</v>
       </c>
       <c r="C113">
-        <v>6.845785932628917</v>
+        <v>32.52170608683365</v>
       </c>
       <c r="D113">
-        <v>12.48054972299065</v>
+        <v>20.96567874933885</v>
       </c>
       <c r="E113">
-        <v>31.690196977965</v>
+        <v>5.083381670985665</v>
       </c>
       <c r="F113">
-        <v>11.62177854272078</v>
+        <v>11.32403747678779</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19.5343961322104</v>
+        <v>5.643527452601202</v>
       </c>
       <c r="C114">
-        <v>6.8752443798894</v>
+        <v>32.59037318976235</v>
       </c>
       <c r="D114">
-        <v>12.5037914329976</v>
+        <v>20.99420774808353</v>
       </c>
       <c r="E114">
-        <v>31.72958588668425</v>
+        <v>5.129343418751212</v>
       </c>
       <c r="F114">
-        <v>11.63201304358909</v>
+        <v>11.394823620946</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>19.58488228936848</v>
+        <v>5.677464378811116</v>
       </c>
       <c r="C115">
-        <v>6.904415748460929</v>
+        <v>32.65761383705883</v>
       </c>
       <c r="D115">
-        <v>12.52658046229295</v>
+        <v>21.02188570403247</v>
       </c>
       <c r="E115">
-        <v>31.76776167293635</v>
+        <v>5.175221336289999</v>
       </c>
       <c r="F115">
-        <v>11.64185191243471</v>
+        <v>11.46524075119742</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>19.63432749513295</v>
+        <v>5.711351249105753</v>
       </c>
       <c r="C116">
-        <v>6.933292216450258</v>
+        <v>32.7234609274196</v>
       </c>
       <c r="D116">
-        <v>12.54892761595197</v>
+        <v>21.04873408590421</v>
       </c>
       <c r="E116">
-        <v>31.80475721405097</v>
+        <v>5.221011294032158</v>
       </c>
       <c r="F116">
-        <v>11.65130611072091</v>
+        <v>11.53528891359403</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>19.68274945657656</v>
+        <v>5.745183548010948</v>
       </c>
       <c r="C117">
-        <v>6.961866127772365</v>
+        <v>32.78794660034464</v>
       </c>
       <c r="D117">
-        <v>12.57084349633319</v>
+        <v>21.07477382289682</v>
       </c>
       <c r="E117">
-        <v>31.84060450200774</v>
+        <v>5.266709415084321</v>
       </c>
       <c r="F117">
-        <v>11.66038628975921</v>
+        <v>11.60496820591143</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.73016557863232</v>
+        <v>5.778956849634184</v>
       </c>
       <c r="C118">
-        <v>6.990130026346313</v>
+        <v>32.85110222214416</v>
       </c>
       <c r="D118">
-        <v>12.59233841633495</v>
+        <v>21.10002528883829</v>
       </c>
       <c r="E118">
-        <v>31.87533461132245</v>
+        <v>5.312312059897534</v>
       </c>
       <c r="F118">
-        <v>11.66910278215313</v>
+        <v>11.67427878524578</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>19.77659296478412</v>
+        <v>5.812666825734603</v>
       </c>
       <c r="C119">
-        <v>7.018076689811213</v>
+        <v>32.91295840258994</v>
       </c>
       <c r="D119">
-        <v>12.61342239059166</v>
+        <v>21.1245082977265</v>
       </c>
       <c r="E119">
-        <v>31.90897769823247</v>
+        <v>5.357815812486663</v>
       </c>
       <c r="F119">
-        <v>11.67746562556671</v>
+        <v>11.74322085492441</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>19.82204842598101</v>
+        <v>5.846309252567329</v>
       </c>
       <c r="C120">
-        <v>7.04569916243311</v>
+        <v>32.97354504705532</v>
       </c>
       <c r="D120">
-        <v>12.63410527898588</v>
+        <v>21.14824216602774</v>
       </c>
       <c r="E120">
-        <v>31.94156310482622</v>
+        <v>5.403217467755837</v>
       </c>
       <c r="F120">
-        <v>11.68548456683414</v>
+        <v>11.81179466795159</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>19.86654848184847</v>
+        <v>5.879880016712267</v>
       </c>
       <c r="C121">
-        <v>7.072990786523777</v>
+        <v>33.03289134214621</v>
       </c>
       <c r="D121">
-        <v>12.65439664786176</v>
+        <v>21.17124569777233</v>
       </c>
       <c r="E121">
-        <v>31.97311932749209</v>
+        <v>5.448514020218795</v>
       </c>
       <c r="F121">
-        <v>11.69316906127759</v>
+        <v>11.88000052861916</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>19.91010936658605</v>
+        <v>5.913375120062023</v>
       </c>
       <c r="C122">
-        <v>7.099945231596819</v>
+        <v>33.09102576341638</v>
       </c>
       <c r="D122">
-        <v>12.67430581664768</v>
+        <v>21.19353717475389</v>
       </c>
       <c r="E122">
-        <v>32.0036740255448</v>
+        <v>5.493702652174171</v>
       </c>
       <c r="F122">
-        <v>11.7005282985032</v>
+        <v>11.9478387816611</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>19.95274703163627</v>
+        <v>5.946790683592012</v>
       </c>
       <c r="C123">
-        <v>7.126556520226265</v>
+        <v>33.14797613731881</v>
       </c>
       <c r="D123">
-        <v>12.69384192972095</v>
+        <v>21.2151344230594</v>
       </c>
       <c r="E123">
-        <v>32.03325411042595</v>
+        <v>5.538780724375613</v>
       </c>
       <c r="F123">
-        <v>11.70757119539007</v>
+        <v>12.01530981755771</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>19.99447715081265</v>
+        <v>5.980122950187141</v>
       </c>
       <c r="C124">
-        <v>7.152819049738101</v>
+        <v>33.2037696216259</v>
       </c>
       <c r="D124">
-        <v>12.71301387988419</v>
+        <v>21.23605479503022</v>
       </c>
       <c r="E124">
-        <v>32.06188571316261</v>
+        <v>5.583745767152151</v>
       </c>
       <c r="F124">
-        <v>11.71430640801652</v>
+        <v>12.08241407032065</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>20.03531512374995</v>
+        <v>6.013368287045615</v>
       </c>
       <c r="C125">
-        <v>7.178727608758097</v>
+        <v>33.25843270657379</v>
       </c>
       <c r="D125">
-        <v>12.73183035417354</v>
+        <v>21.25631515991157</v>
       </c>
       <c r="E125">
-        <v>32.08959420435406</v>
+        <v>5.628595471404152</v>
       </c>
       <c r="F125">
-        <v>11.7207423469325</v>
+        <v>12.14915201083459</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>20.07527608050317</v>
+        <v>6.046523187196258</v>
       </c>
       <c r="C126">
-        <v>7.204277388140116</v>
+        <v>33.31199128342387</v>
       </c>
       <c r="D126">
-        <v>12.75029981753063</v>
+        <v>21.2759319649012</v>
       </c>
       <c r="E126">
-        <v>32.11640426646066</v>
+        <v>5.673327680347937</v>
       </c>
       <c r="F126">
-        <v>11.72688716816797</v>
+        <v>12.21552415163839</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>20.11437488599934</v>
+        <v>6.079584270351057</v>
       </c>
       <c r="C127">
-        <v>7.229463986384307</v>
+        <v>33.36447062223803</v>
       </c>
       <c r="D127">
-        <v>12.76843054834907</v>
+        <v>21.29492122100856</v>
       </c>
       <c r="E127">
-        <v>32.14233986089912</v>
+        <v>5.717940381876503</v>
       </c>
       <c r="F127">
-        <v>11.73274879880064</v>
+        <v>12.28153104158773</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>20.15262614422732</v>
+        <v>6.112548283223513</v>
       </c>
       <c r="C128">
-        <v>7.254283409319779</v>
+        <v>33.41589536859176</v>
       </c>
       <c r="D128">
-        <v>12.78623062268379</v>
+        <v>21.31329849490049</v>
       </c>
       <c r="E128">
-        <v>32.16742426092264</v>
+        <v>5.762431701045189</v>
       </c>
       <c r="F128">
-        <v>11.73833493308642</v>
+        <v>12.34717326376587</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>20.19004420221395</v>
+        <v>6.14541209926976</v>
       </c>
       <c r="C129">
-        <v>7.278732065441641</v>
+        <v>33.46628961363788</v>
       </c>
       <c r="D129">
-        <v>12.80370789841705</v>
+        <v>21.33107896067301</v>
       </c>
       <c r="E129">
-        <v>32.19168010502655</v>
+        <v>5.806799893185818</v>
       </c>
       <c r="F129">
-        <v>11.74365303625308</v>
+        <v>12.41245143908604</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>20.22664315425273</v>
+        <v>6.178172717903219</v>
       </c>
       <c r="C130">
-        <v>7.302806757169277</v>
+        <v>33.51567687234006</v>
       </c>
       <c r="D130">
-        <v>12.82087006624731</v>
+        <v>21.34827739172692</v>
       </c>
       <c r="E130">
-        <v>32.21512936511769</v>
+        <v>5.851043337218709</v>
       </c>
       <c r="F130">
-        <v>11.74871036396082</v>
+        <v>12.47736621823912</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>20.26243684568771</v>
+        <v>6.210827263445129</v>
       </c>
       <c r="C131">
-        <v>7.326504669135704</v>
+        <v>33.56408007563023</v>
       </c>
       <c r="D131">
-        <v>12.83772462351117</v>
+        <v>21.36490815163787</v>
       </c>
       <c r="E131">
-        <v>32.23779339364299</v>
+        <v>5.895160529549313</v>
       </c>
       <c r="F131">
-        <v>11.75351395515469</v>
+        <v>12.54191828452317</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>20.29743887703545</v>
+        <v>6.243372983647054</v>
       </c>
       <c r="C132">
-        <v>7.349823354319569</v>
+        <v>33.61152164158712</v>
       </c>
       <c r="D132">
-        <v>12.8542788797787</v>
+        <v>21.38098524028216</v>
       </c>
       <c r="E132">
-        <v>32.25969295502671</v>
+        <v>5.939150078240668</v>
       </c>
       <c r="F132">
-        <v>11.75807064515928</v>
+        <v>12.60610835361994</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>20.33166260894153</v>
+        <v>6.275807247892254</v>
       </c>
       <c r="C133">
-        <v>7.372760718718482</v>
+        <v>33.65802345323804</v>
       </c>
       <c r="D133">
-        <v>12.87053997348782</v>
+        <v>21.39652228936899</v>
       </c>
       <c r="E133">
-        <v>32.28084819735876</v>
+        <v>5.983010697274453</v>
       </c>
       <c r="F133">
-        <v>11.76238707420742</v>
+        <v>12.66993716793217</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>20.36512116541619</v>
+        <v>6.308127545138381</v>
       </c>
       <c r="C134">
-        <v>7.395315005148978</v>
+        <v>33.7036068509758</v>
       </c>
       <c r="D134">
-        <v>12.8865148686529</v>
+        <v>21.41153255267806</v>
       </c>
       <c r="E134">
-        <v>32.30127871393807</v>
+        <v>6.026741201175955</v>
       </c>
       <c r="F134">
-        <v>11.76646968197278</v>
+        <v>12.73340549940501</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>20.39782743522942</v>
+        <v>6.34033148165007</v>
       </c>
       <c r="C135">
-        <v>7.41748477665702</v>
+        <v>33.74829269627272</v>
       </c>
       <c r="D135">
-        <v>12.90221036190108</v>
+        <v>21.42602894716177</v>
       </c>
       <c r="E135">
-        <v>32.32100355148525</v>
+        <v>6.070340499861408</v>
       </c>
       <c r="F135">
-        <v>11.77032472839738</v>
+        <v>12.79651414758596</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>20.42979408168456</v>
+        <v>6.37241677846631</v>
       </c>
       <c r="C136">
-        <v>7.439268899835727</v>
+        <v>33.79210135600771</v>
       </c>
       <c r="D136">
-        <v>12.91763308609804</v>
+        <v>21.44002405162692</v>
       </c>
       <c r="E136">
-        <v>32.34004118652991</v>
+        <v>6.113807593882459</v>
       </c>
       <c r="F136">
-        <v>11.77395828870485</v>
+        <v>12.85926393630015</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>20.46103354276545</v>
+        <v>6.404381268800838</v>
       </c>
       <c r="C137">
-        <v>7.460666528347314</v>
+        <v>33.83505269530264</v>
       </c>
       <c r="D137">
-        <v>12.93278951311034</v>
+        <v>21.45353009604069</v>
       </c>
       <c r="E137">
-        <v>32.35840960156116</v>
+        <v>6.157141569937583</v>
       </c>
       <c r="F137">
-        <v>11.77737625878726</v>
+        <v>12.92165571621149</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>20.49155803267739</v>
+        <v>6.436222895276029</v>
       </c>
       <c r="C138">
-        <v>7.481677086856314</v>
+        <v>33.87716612757914</v>
       </c>
       <c r="D138">
-        <v>12.94768595586051</v>
+        <v>21.46655899856131</v>
       </c>
       <c r="E138">
-        <v>32.37612626699064</v>
+        <v>6.200341596277623</v>
       </c>
       <c r="F138">
-        <v>11.78058436911492</v>
+        <v>12.98369036096576</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>20.52137954902183</v>
+        <v>6.467939707054673</v>
       </c>
       <c r="C139">
-        <v>7.502300255399704</v>
+        <v>33.91846061213071</v>
       </c>
       <c r="D139">
-        <v>12.96232858430837</v>
+        <v>21.47912236676367</v>
       </c>
       <c r="E139">
-        <v>32.39320813407745</v>
+        <v>6.243406918541556</v>
       </c>
       <c r="F139">
-        <v>11.78358817816641</v>
+        <v>13.04536876671686</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>20.55050987830595</v>
+        <v>6.499529856775927</v>
       </c>
       <c r="C140">
-        <v>7.522535954324006</v>
+        <v>33.95895464387328</v>
       </c>
       <c r="D140">
-        <v>12.97672342127194</v>
+        <v>21.49123148684976</v>
       </c>
       <c r="E140">
-        <v>32.40967170371577</v>
+        <v>6.286336855910653</v>
       </c>
       <c r="F140">
-        <v>11.78639308621345</v>
+        <v>13.10669185352858</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>20.57896059565625</v>
+        <v>6.530991597839871</v>
       </c>
       <c r="C141">
-        <v>7.542384329821266</v>
+        <v>33.99866629184591</v>
       </c>
       <c r="D141">
-        <v>12.99087634949604</v>
+        <v>21.50289735597695</v>
       </c>
       <c r="E141">
-        <v>32.42553300327266</v>
+        <v>6.329130797222878</v>
       </c>
       <c r="F141">
-        <v>11.78900433814275</v>
+        <v>13.16766056076306</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>20.60674306514619</v>
+        <v>6.562323281158065</v>
       </c>
       <c r="C142">
-        <v>7.561845740125782</v>
+        <v>34.03761320794545</v>
       </c>
       <c r="D142">
-        <v>13.00479308350883</v>
+        <v>21.51413068603908</v>
       </c>
       <c r="E142">
-        <v>32.44080758854884</v>
+        <v>6.371788197426564</v>
       </c>
       <c r="F142">
-        <v>11.79142702158403</v>
+        <v>13.22827584915132</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>20.6338684545306</v>
+        <v>6.593523352488597</v>
       </c>
       <c r="C143">
-        <v>7.580920742317556</v>
+        <v>34.07581261441129</v>
       </c>
       <c r="D143">
-        <v>13.01847921632892</v>
+        <v>21.52494189302224</v>
       </c>
       <c r="E143">
-        <v>32.45551060156426</v>
+        <v>6.414308574052035</v>
       </c>
       <c r="F143">
-        <v>11.79366608268153</v>
+        <v>13.28853870049264</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>20.66034773092148</v>
+        <v>6.624590348525823</v>
       </c>
       <c r="C144">
-        <v>7.599610079751029</v>
+        <v>34.11328133240689</v>
       </c>
       <c r="D144">
-        <v>13.03194023018881</v>
+        <v>21.53534112499961</v>
       </c>
       <c r="E144">
-        <v>32.46965674766758</v>
+        <v>6.456691504120434</v>
       </c>
       <c r="F144">
-        <v>11.79572632129677</v>
+        <v>13.34845011226077</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>20.68619166069305</v>
+        <v>6.655522894721491</v>
       </c>
       <c r="C145">
-        <v>7.617914670137646</v>
+        <v>34.15003579961449</v>
       </c>
       <c r="D145">
-        <v>13.04518147147104</v>
+        <v>21.54533826803679</v>
       </c>
       <c r="E145">
-        <v>32.4832603048504</v>
+        <v>6.498936620962207</v>
       </c>
       <c r="F145">
-        <v>11.797612397264</v>
+        <v>13.40801109983492</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>20.7114108215448</v>
+        <v>6.686319701567015</v>
       </c>
       <c r="C146">
-        <v>7.635835594184141</v>
+        <v>34.18609205625512</v>
       </c>
       <c r="D146">
-        <v>13.05820816621081</v>
+        <v>21.55494293582051</v>
       </c>
       <c r="E146">
-        <v>32.4963351698845</v>
+        <v>6.541043611287526</v>
       </c>
       <c r="F146">
-        <v>11.79932883962482</v>
+        <v>13.46722269657065</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>20.73601560317178</v>
+        <v>6.716979562072747</v>
       </c>
       <c r="C147">
-        <v>7.653374084848902</v>
+        <v>34.22146576534444</v>
       </c>
       <c r="D147">
-        <v>13.07102532823684</v>
+        <v>21.56416449377345</v>
       </c>
       <c r="E147">
-        <v>32.50889483657544</v>
+        <v>6.583012212302614</v>
       </c>
       <c r="F147">
-        <v>11.80088004096684</v>
+        <v>13.52608595811966</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>20.76001620745707</v>
+        <v>6.747501348536852</v>
       </c>
       <c r="C148">
-        <v>7.670531517144924</v>
+        <v>34.25617223699695</v>
       </c>
       <c r="D148">
-        <v>13.08363795667774</v>
+        <v>21.57301206667336</v>
       </c>
       <c r="E148">
-        <v>32.52095241280031</v>
+        <v>6.624842209145699</v>
       </c>
       <c r="F148">
-        <v>11.80227027136875</v>
+        <v>13.58460194588707</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>20.78342265091451</v>
+        <v>6.777884009925367</v>
       </c>
       <c r="C149">
-        <v>7.687309398506475</v>
+        <v>34.29022641361781</v>
       </c>
       <c r="D149">
-        <v>13.09605091034279</v>
+        <v>21.58149452846589</v>
       </c>
       <c r="E149">
-        <v>32.53252065416908</v>
+        <v>6.666533432306591</v>
       </c>
       <c r="F149">
-        <v>11.8035036756023</v>
+        <v>13.64277173842799</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>20.80624477620415</v>
+        <v>6.80812656865823</v>
       </c>
       <c r="C150">
-        <v>7.703709359625039</v>
+        <v>34.3236428833256</v>
       </c>
       <c r="D150">
-        <v>13.1082689332398</v>
+        <v>21.58962052310799</v>
       </c>
       <c r="E150">
-        <v>32.54361194413951</v>
+        <v>6.708085755228047</v>
       </c>
       <c r="F150">
-        <v>11.80458427296395</v>
+        <v>13.70059642879347</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>20.82849224890669</v>
+        <v>6.838228118379465</v>
       </c>
       <c r="C151">
-        <v>7.719733145710844</v>
+        <v>34.3564359091623</v>
       </c>
       <c r="D151">
-        <v>13.12029664857731</v>
+        <v>21.5973984735479</v>
       </c>
       <c r="E151">
-        <v>32.55423831897794</v>
+        <v>6.749499092102348</v>
       </c>
       <c r="F151">
-        <v>11.80551597612785</v>
+        <v>13.75807713554792</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>20.85017455527894</v>
+        <v>6.868187820604311</v>
       </c>
       <c r="C152">
-        <v>7.735382608322058</v>
+        <v>34.38861941393237</v>
       </c>
       <c r="D152">
-        <v>13.13213850892815</v>
+        <v>21.60483657174295</v>
       </c>
       <c r="E152">
-        <v>32.56441148845624</v>
+        <v>6.790773395480857</v>
       </c>
       <c r="F152">
-        <v>11.80630258524255</v>
+        <v>13.81521497396306</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>20.87130101880431</v>
+        <v>6.898004902349988</v>
       </c>
       <c r="C153">
-        <v>7.750659697500676</v>
+        <v>34.42020698809183</v>
       </c>
       <c r="D153">
-        <v>13.14379895627344</v>
+        <v>21.61194279657967</v>
       </c>
       <c r="E153">
-        <v>32.574142818315</v>
+        <v>6.831908654456908</v>
       </c>
       <c r="F153">
-        <v>11.80694778581727</v>
+        <v>13.872011076425</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>20.89188079486709</v>
+        <v>6.927678653379965</v>
       </c>
       <c r="C154">
-        <v>7.765566454650285</v>
+        <v>34.45121192232062</v>
       </c>
       <c r="D154">
-        <v>13.15528229606694</v>
+        <v>21.61872492392182</v>
       </c>
       <c r="E154">
-        <v>32.58344336333209</v>
+        <v>6.872904892277818</v>
       </c>
       <c r="F154">
-        <v>11.80745514568558</v>
+        <v>13.92846658643812</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>20.91192287234441</v>
+        <v>6.957208423857906</v>
       </c>
       <c r="C155">
-        <v>7.780105005684934</v>
+        <v>34.48164719242339</v>
       </c>
       <c r="D155">
-        <v>13.16659273538917</v>
+        <v>21.62519051694255</v>
       </c>
       <c r="E155">
-        <v>32.59232387466459</v>
+        <v>6.913762164752166</v>
       </c>
       <c r="F155">
-        <v>11.80782815527553</v>
+        <v>13.98458267084012</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>20.93143607833643</v>
+        <v>6.986593621679421</v>
       </c>
       <c r="C156">
-        <v>7.794277554325264</v>
+        <v>34.5115254628121</v>
       </c>
       <c r="D156">
-        <v>13.17773436286964</v>
+        <v>21.63134694141488</v>
       </c>
       <c r="E156">
-        <v>32.60079478510593</v>
+        <v>6.954480558578068</v>
       </c>
       <c r="F156">
-        <v>11.8080702005957</v>
+        <v>14.040360492474</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>20.95042908621041</v>
+        <v>7.015833710058939</v>
       </c>
       <c r="C157">
-        <v>7.808086375831235</v>
+        <v>34.54085912112352</v>
       </c>
       <c r="D157">
-        <v>13.18871116281422</v>
+        <v>21.63720137655024</v>
       </c>
       <c r="E157">
-        <v>32.60886625037469</v>
+        <v>6.995060189216207</v>
       </c>
       <c r="F157">
-        <v>11.80818455848996</v>
+        <v>14.09580122889064</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>20.96891041274295</v>
+        <v>7.044928205570701</v>
       </c>
       <c r="C158">
-        <v>7.821533811202196</v>
+        <v>34.56966026352882</v>
       </c>
       <c r="D158">
-        <v>13.19952706321603</v>
+        <v>21.64276080575458</v>
       </c>
       <c r="E158">
-        <v>32.61654814187314</v>
+        <v>7.035501200121405</v>
       </c>
       <c r="F158">
-        <v>11.80817439631553</v>
+        <v>14.15090606683644</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>20.98688841640036</v>
+        <v>7.073876675265883</v>
       </c>
       <c r="C159">
-        <v>7.834622261637154</v>
+        <v>34.59794069479533</v>
       </c>
       <c r="D159">
-        <v>13.21018588616728</v>
+        <v>21.64803202957079</v>
       </c>
       <c r="E159">
-        <v>32.62385003980472</v>
+        <v>7.075803760259368</v>
       </c>
       <c r="F159">
-        <v>11.80804282659571</v>
+        <v>14.20567620851</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>21.00437131332448</v>
+        <v>7.102678735288867</v>
       </c>
       <c r="C160">
-        <v>7.847354183453637</v>
+        <v>34.62571196382694</v>
       </c>
       <c r="D160">
-        <v>13.22069136674797</v>
+        <v>21.65302167704497</v>
       </c>
       <c r="E160">
-        <v>32.63078127342778</v>
+        <v>7.115968063627103</v>
       </c>
       <c r="F160">
-        <v>11.80779286275153</v>
+        <v>14.26011285824224</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>21.02136717110982</v>
+        <v>7.131334048010713</v>
       </c>
       <c r="C161">
-        <v>7.859732083013977</v>
+        <v>34.65298534966509</v>
       </c>
       <c r="D161">
-        <v>13.2310471295195</v>
+        <v>21.65773619694821</v>
       </c>
       <c r="E161">
-        <v>32.63735090764956</v>
+        <v>7.155994326942151</v>
       </c>
       <c r="F161">
-        <v>11.8074274192227</v>
+        <v>14.31421722968238</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>21.03788390917006</v>
+        <v>7.159842320687726</v>
       </c>
       <c r="C162">
-        <v>7.871758512153775</v>
+        <v>34.67977185895279</v>
       </c>
       <c r="D162">
-        <v>13.24125673403054</v>
+        <v>21.6621818686722</v>
       </c>
       <c r="E162">
-        <v>32.64356774306132</v>
+        <v>7.1958827890085</v>
       </c>
       <c r="F162">
-        <v>11.80694931752775</v>
+        <v>14.36799054433643</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>21.0539293069153</v>
+        <v>7.188203302935908</v>
       </c>
       <c r="C163">
-        <v>7.883436063777716</v>
+        <v>34.70608226152262</v>
       </c>
       <c r="D163">
-        <v>13.25132366358122</v>
+        <v>21.66636481393065</v>
       </c>
       <c r="E163">
-        <v>32.64944034939355</v>
+        <v>7.235633708929674</v>
       </c>
       <c r="F163">
-        <v>11.80636132520234</v>
+        <v>14.42143403413725</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>21.0695110070423</v>
+        <v>7.216416785237958</v>
       </c>
       <c r="C164">
-        <v>7.894767367676149</v>
+        <v>34.73192707727225</v>
       </c>
       <c r="D164">
-        <v>13.26125131737137</v>
+        <v>21.67029098842734</v>
       </c>
       <c r="E164">
-        <v>32.65497705248343</v>
+        <v>7.275247365465829</v>
       </c>
       <c r="F164">
-        <v>11.80566612205285</v>
+        <v>14.47454893530007</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>21.08463651385275</v>
+        <v>7.244482596927948</v>
       </c>
       <c r="C165">
-        <v>7.905755086721109</v>
+        <v>34.75731657171208</v>
       </c>
       <c r="D165">
-        <v>13.27104301772799</v>
+        <v>21.67396619098053</v>
       </c>
       <c r="E165">
-        <v>32.6601859383637</v>
+        <v>7.314724055300656</v>
       </c>
       <c r="F165">
-        <v>11.80486630216349</v>
+        <v>14.52733648993375</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>21.09931319347884</v>
+        <v>7.272400604386021</v>
       </c>
       <c r="C166">
-        <v>7.916401913204709</v>
+        <v>34.78226079093731</v>
       </c>
       <c r="D166">
-        <v>13.28070197535603</v>
+        <v>21.67739607540436</v>
       </c>
       <c r="E166">
-        <v>32.66507488015415</v>
+        <v>7.354064092753045</v>
       </c>
       <c r="F166">
-        <v>11.80396438234689</v>
+        <v>14.57979794640993</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.11354828626736</v>
+        <v>7.300170709675037</v>
       </c>
       <c r="C167">
-        <v>7.926710565280779</v>
+        <v>34.80676954931893</v>
       </c>
       <c r="D167">
-        <v>13.29023137346708</v>
+        <v>21.68058614260839</v>
       </c>
       <c r="E167">
-        <v>32.66965152575132</v>
+        <v>7.393267807900877</v>
       </c>
       <c r="F167">
-        <v>11.80296282201584</v>
+        <v>14.63193456118861</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21.12734890199856</v>
+        <v>7.327792848352286</v>
       </c>
       <c r="C168">
-        <v>7.936683784261522</v>
+        <v>34.83085242453426</v>
       </c>
       <c r="D168">
-        <v>13.29963430808283</v>
+        <v>21.68354174818678</v>
       </c>
       <c r="E168">
-        <v>32.67392330611833</v>
+        <v>7.432335546502444</v>
       </c>
       <c r="F168">
-        <v>11.80186400588508</v>
+        <v>14.68374759473769</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21.14072201856919</v>
+        <v>7.355266988605377</v>
       </c>
       <c r="C169">
-        <v>7.946324330222212</v>
+        <v>34.85451878974666</v>
       </c>
       <c r="D169">
-        <v>13.30891380643312</v>
+        <v>21.68626811434341</v>
       </c>
       <c r="E169">
-        <v>32.67789745531974</v>
+        <v>7.471267668255639</v>
       </c>
       <c r="F169">
-        <v>11.80067024338547</v>
+        <v>14.73523831082064</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21.15367449356782</v>
+        <v>7.382593129078066</v>
       </c>
       <c r="C170">
-        <v>7.955634981077647</v>
+        <v>34.8777778033552</v>
       </c>
       <c r="D170">
-        <v>13.31807281902112</v>
+        <v>21.68877032242964</v>
       </c>
       <c r="E170">
-        <v>32.68158099264593</v>
+        <v>7.510064546720598</v>
       </c>
       <c r="F170">
-        <v>11.79938377809487</v>
+        <v>14.78640797819363</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21.16621306248036</v>
+        <v>7.409771298030187</v>
       </c>
       <c r="C171">
-        <v>7.96461852797344</v>
+        <v>34.9006384055947</v>
       </c>
       <c r="D171">
-        <v>13.32711420833013</v>
+        <v>21.69105331920291</v>
       </c>
       <c r="E171">
-        <v>32.68498074388916</v>
+        <v>7.548726567748266</v>
       </c>
       <c r="F171">
-        <v>11.79800679891143</v>
+        <v>14.83725787201991</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>21.17834433858894</v>
+        <v>7.436801551475527</v>
       </c>
       <c r="C172">
-        <v>7.97327777239217</v>
+        <v>34.9231093427919</v>
       </c>
       <c r="D172">
-        <v>13.33604080987097</v>
+        <v>21.69312192866029</v>
       </c>
       <c r="E172">
-        <v>32.68810335921264</v>
+        <v>7.587254129419645</v>
       </c>
       <c r="F172">
-        <v>11.79654143010832</v>
+        <v>14.88778927135914</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>21.19007481508945</v>
+        <v>7.463683972190459</v>
       </c>
       <c r="C173">
-        <v>7.981615527347005</v>
+        <v>34.94519916429635</v>
       </c>
       <c r="D173">
-        <v>13.34485538175121</v>
+        <v>21.69498084503194</v>
       </c>
       <c r="E173">
-        <v>32.6909553055598</v>
+        <v>7.625647640605941</v>
       </c>
       <c r="F173">
-        <v>11.7949897283422</v>
+        <v>14.93800345597802</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>21.20141087387056</v>
+        <v>7.49041866860915</v>
       </c>
       <c r="C174">
-        <v>7.989634608230044</v>
+        <v>34.9669162092268</v>
       </c>
       <c r="D174">
-        <v>13.35356062134654</v>
+        <v>21.6966346378899</v>
       </c>
       <c r="E174">
-        <v>32.69354286213011</v>
+        <v>7.663907520967919</v>
       </c>
       <c r="F174">
-        <v>11.79335369399412</v>
+        <v>14.98790170980813</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>21.21235878208519</v>
+        <v>7.517005772992776</v>
       </c>
       <c r="C175">
-        <v>7.997337840440585</v>
+        <v>34.98826864085134</v>
       </c>
       <c r="D175">
-        <v>13.36215914805239</v>
+        <v>21.698087763782</v>
       </c>
       <c r="E175">
-        <v>32.69587209481021</v>
+        <v>7.702034199592064</v>
       </c>
       <c r="F175">
-        <v>11.79163527806031</v>
+        <v>15.03748532109822</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>21.22292468966279</v>
+        <v>7.543445440040526</v>
       </c>
       <c r="C176">
-        <v>8.004728046995051</v>
+        <v>35.00926444406929</v>
       </c>
       <c r="D176">
-        <v>13.37065352478072</v>
+        <v>21.69934455968032</v>
       </c>
       <c r="E176">
-        <v>32.69794897198723</v>
+        <v>7.740028115059663</v>
       </c>
       <c r="F176">
-        <v>11.7898363748481</v>
+        <v>15.08675558190916</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>21.23311464329193</v>
+        <v>7.569737848212112</v>
       </c>
       <c r="C177">
-        <v>8.011808055648366</v>
+        <v>35.02991142580914</v>
       </c>
       <c r="D177">
-        <v>13.37904627472526</v>
+        <v>21.70040924710176</v>
       </c>
       <c r="E177">
-        <v>32.69977928074653</v>
+        <v>7.777889714162775</v>
       </c>
       <c r="F177">
-        <v>11.78795881393905</v>
+        <v>15.13571378342952</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>21.2429345806258</v>
+        <v>7.595883194132621</v>
       </c>
       <c r="C178">
-        <v>8.018580690907539</v>
+        <v>35.05021721532065</v>
       </c>
       <c r="D178">
-        <v>13.38733985658012</v>
+        <v>21.7012859434663</v>
       </c>
       <c r="E178">
-        <v>32.70136865773668</v>
+        <v>7.815619452010901</v>
       </c>
       <c r="F178">
-        <v>11.78600437796914</v>
+        <v>15.18436121997663</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>21.25239033126505</v>
+        <v>7.621881694938138</v>
       </c>
       <c r="C179">
-        <v>8.02504877616866</v>
+        <v>35.07018921916115</v>
       </c>
       <c r="D179">
-        <v>13.39553667522594</v>
+        <v>21.70197865598174</v>
       </c>
       <c r="E179">
-        <v>32.70272247868328</v>
+        <v>7.853217790843432</v>
       </c>
       <c r="F179">
-        <v>11.78397480626301</v>
+        <v>15.23269918833933</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>21.26148762099058</v>
+        <v>7.647733588674027</v>
       </c>
       <c r="C180">
-        <v>8.031215131360193</v>
+        <v>35.08983475563797</v>
       </c>
       <c r="D180">
-        <v>13.40363905935001</v>
+        <v>21.70249128491855</v>
       </c>
       <c r="E180">
-        <v>32.70384608955763</v>
+        <v>7.890685200147353</v>
       </c>
       <c r="F180">
-        <v>11.78187178667512</v>
+        <v>15.28072898847376</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>21.27023207668232</v>
+        <v>7.673439127804282</v>
       </c>
       <c r="C181">
-        <v>8.03708256975008</v>
+        <v>35.10916095871459</v>
       </c>
       <c r="D181">
-        <v>13.4116493080546</v>
+        <v>21.7028276346414</v>
       </c>
       <c r="E181">
-        <v>32.70474466671779</v>
+        <v>7.928022155572552</v>
       </c>
       <c r="F181">
-        <v>11.77969694913671</v>
+        <v>15.32845191868379</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>21.27862922401689</v>
+        <v>7.698998583856926</v>
       </c>
       <c r="C182">
-        <v>8.042653898147343</v>
+        <v>35.12817481009203</v>
       </c>
       <c r="D182">
-        <v>13.41956966744839</v>
+        <v>21.70299140570175</v>
       </c>
       <c r="E182">
-        <v>32.70542324458305</v>
+        <v>7.96522913905224</v>
       </c>
       <c r="F182">
-        <v>11.77745188354444</v>
+        <v>15.3758692792197</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>21.28668448647866</v>
+        <v>7.724412244838152</v>
       </c>
       <c r="C183">
-        <v>8.047931914325764</v>
+        <v>35.14688309399819</v>
       </c>
       <c r="D183">
-        <v>13.42740233193939</v>
+        <v>21.70298619777509</v>
       </c>
       <c r="E183">
-        <v>32.70588667474592</v>
+        <v>8.002306637812367</v>
       </c>
       <c r="F183">
-        <v>11.775138138997</v>
+        <v>15.42298237138063</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>21.2944031963983</v>
+        <v>7.749680412092697</v>
       </c>
       <c r="C184">
-        <v>8.052919408837234</v>
+        <v>35.16529243344077</v>
       </c>
       <c r="D184">
-        <v>13.43514944617992</v>
+        <v>21.70281552777769</v>
       </c>
       <c r="E184">
-        <v>32.70613967674268</v>
+        <v>8.039255144497341</v>
       </c>
       <c r="F184">
-        <v>11.77275721928483</v>
+        <v>15.46979249882758</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>21.30179059036436</v>
+        <v>7.774803403749575</v>
       </c>
       <c r="C185">
-        <v>8.057619159503972</v>
+        <v>35.18340937546847</v>
       </c>
       <c r="D185">
-        <v>13.44281308891079</v>
+        <v>21.70248282031736</v>
       </c>
       <c r="E185">
-        <v>32.70618689111</v>
+        <v>8.076075156261934</v>
       </c>
       <c r="F185">
-        <v>11.77031057711662</v>
+        <v>15.51630096284921</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>21.30885180888951</v>
+        <v>7.799781550399722</v>
       </c>
       <c r="C186">
-        <v>8.062033934374112</v>
+        <v>35.20124029609735</v>
       </c>
       <c r="D186">
-        <v>13.4503953186317</v>
+        <v>21.70199141425457</v>
       </c>
       <c r="E186">
-        <v>32.70603281027538</v>
+        <v>8.112767174903498</v>
       </c>
       <c r="F186">
-        <v>11.76779963054441</v>
+        <v>15.56250906562886</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>21.31559190321132</v>
+        <v>7.824615195474718</v>
       </c>
       <c r="C187">
-        <v>8.066166488070468</v>
+        <v>35.21879143581107</v>
       </c>
       <c r="D187">
-        <v>13.45789813999813</v>
+        <v>21.7013445329764</v>
       </c>
       <c r="E187">
-        <v>32.70568179681342</v>
+        <v>8.14933170606635</v>
       </c>
       <c r="F187">
-        <v>11.76522575952283</v>
+        <v>15.60841810926004</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>21.32201583633867</v>
+        <v>7.849304695792151</v>
       </c>
       <c r="C188">
-        <v>8.070019562712773</v>
+        <v>35.23606882066387</v>
       </c>
       <c r="D188">
-        <v>13.46532351449293</v>
+        <v>21.70054534566886</v>
       </c>
       <c r="E188">
-        <v>32.70513805331703</v>
+        <v>8.185769259544243</v>
       </c>
       <c r="F188">
-        <v>11.76259030432301</v>
+        <v>15.65402939772393</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>21.32812848204939</v>
+        <v>7.873850418541138</v>
       </c>
       <c r="C189">
-        <v>8.073595887182213</v>
+        <v>35.25307842161885</v>
       </c>
       <c r="D189">
-        <v>13.47267335439565</v>
+        <v>21.699596941435</v>
       </c>
       <c r="E189">
-        <v>32.70440572507882</v>
+        <v>8.222080347985839</v>
       </c>
       <c r="F189">
-        <v>11.75989455968095</v>
+        <v>15.6993442315796</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>21.33393462544563</v>
+        <v>7.898252742407468</v>
       </c>
       <c r="C190">
-        <v>8.07689817460917</v>
+        <v>35.26982607122137</v>
       </c>
       <c r="D190">
-        <v>13.47994952332491</v>
+        <v>21.69850232919531</v>
       </c>
       <c r="E190">
-        <v>32.70348882429913</v>
+        <v>8.258265487085851</v>
       </c>
       <c r="F190">
-        <v>11.75713979063757</v>
+        <v>15.74436391152025</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>21.33943897080495</v>
+        <v>7.922512057376818</v>
       </c>
       <c r="C191">
-        <v>8.079929123398518</v>
+        <v>35.28631746791343</v>
       </c>
       <c r="D191">
-        <v>13.48715386108856</v>
+        <v>21.69726443207997</v>
       </c>
       <c r="E191">
-        <v>32.70239125525551</v>
+        <v>8.294325196467627</v>
       </c>
       <c r="F191">
-        <v>11.75432722717751</v>
+        <v>15.78908973716364</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>21.34464613847265</v>
+        <v>7.946628761777157</v>
       </c>
       <c r="C192">
-        <v>8.08269141524427</v>
+        <v>35.3025581787923</v>
       </c>
       <c r="D192">
-        <v>13.49428816130107</v>
+        <v>21.69588605802229</v>
       </c>
       <c r="E192">
-        <v>32.70111678271015</v>
+        <v>8.330259996718928</v>
       </c>
       <c r="F192">
-        <v>11.75145806445714</v>
+        <v>15.83352300956452</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>21.34956066320186</v>
+        <v>7.970603264327314</v>
       </c>
       <c r="C193">
-        <v>8.08518771660818</v>
+        <v>35.3185536103066</v>
       </c>
       <c r="D193">
-        <v>13.50135417952861</v>
+        <v>21.69437000649787</v>
       </c>
       <c r="E193">
-        <v>32.69966909992107</v>
+        <v>8.366070410806351</v>
       </c>
       <c r="F193">
-        <v>11.74853345603998</v>
+        <v>15.87766502549137</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>21.35418700348555</v>
+        <v>7.994435982559751</v>
       </c>
       <c r="C194">
-        <v>8.087420675600811</v>
+        <v>35.33430910957763</v>
       </c>
       <c r="D194">
-        <v>13.50835362123589</v>
+        <v>21.69271898377458</v>
       </c>
       <c r="E194">
-        <v>32.6980517966816</v>
+        <v>8.40175696594064</v>
       </c>
       <c r="F194">
-        <v>11.74555453094443</v>
+        <v>15.92151708117829</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>21.35852953879945</v>
+        <v>8.018127341389938</v>
       </c>
       <c r="C195">
-        <v>8.089392923380279</v>
+        <v>35.34982988707027</v>
       </c>
       <c r="D195">
-        <v>13.51528816159621</v>
+        <v>21.69093562910402</v>
       </c>
       <c r="E195">
-        <v>32.69626836319885</v>
+        <v>8.437320188642435</v>
       </c>
       <c r="F195">
-        <v>11.7425223859269</v>
+        <v>15.96508047112274</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>21.36259256978431</v>
+        <v>8.041677774951886</v>
       </c>
       <c r="C196">
-        <v>8.091107072641632</v>
+        <v>35.36512104175967</v>
       </c>
       <c r="D196">
-        <v>13.52215944598226</v>
+        <v>21.68902248382263</v>
       </c>
       <c r="E196">
-        <v>32.69432218063027</v>
+        <v>8.472760607478556</v>
       </c>
       <c r="F196">
-        <v>11.73943808704577</v>
+        <v>16.00835648997337</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>21.36638032012876</v>
+        <v>8.065087723775305</v>
       </c>
       <c r="C197">
-        <v>8.092565717826163</v>
+        <v>35.38018754390468</v>
       </c>
       <c r="D197">
-        <v>13.52896908099716</v>
+        <v>21.68698203685567</v>
       </c>
       <c r="E197">
-        <v>32.69221653375354</v>
+        <v>8.508078754273679</v>
       </c>
       <c r="F197">
-        <v>11.7363026618177</v>
+        <v>16.05134642858618</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>21.36989694195947</v>
+        <v>8.088357635370238</v>
       </c>
       <c r="C198">
-        <v>8.093771435050648</v>
+        <v>35.39503425768577</v>
       </c>
       <c r="D198">
-        <v>13.53571863959348</v>
+        <v>21.68481673165207</v>
       </c>
       <c r="E198">
-        <v>32.68995464014615</v>
+        <v>8.543275160217917</v>
       </c>
       <c r="F198">
-        <v>11.73311711815361</v>
+        <v>16.09405157595685</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>21.37314651345938</v>
+        <v>8.111487964735861</v>
       </c>
       <c r="C199">
-        <v>8.094726780584667</v>
+        <v>35.40966596306908</v>
       </c>
       <c r="D199">
-        <v>13.54240964328965</v>
+        <v>21.68252893893982</v>
       </c>
       <c r="E199">
-        <v>32.6875396223564</v>
+        <v>8.57835035790254</v>
       </c>
       <c r="F199">
-        <v>11.72988243394641</v>
+        <v>16.13647321893818</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>21.37613303755058</v>
+        <v>8.134479171964076</v>
       </c>
       <c r="C200">
-        <v>8.095434291789708</v>
+        <v>35.42408732876034</v>
       </c>
       <c r="D200">
-        <v>13.54904360191353</v>
+        <v>21.68012096813968</v>
       </c>
       <c r="E200">
-        <v>32.68497451471246</v>
+        <v>8.613304881690643</v>
       </c>
       <c r="F200">
-        <v>11.72659955995727</v>
+        <v>16.17861264334904</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>21.37886045075328</v>
+        <v>8.15733172335656</v>
       </c>
       <c r="C201">
-        <v>8.095896485752473</v>
+        <v>35.43830292520563</v>
       </c>
       <c r="D201">
-        <v>13.55562198736442</v>
+        <v>21.67759503995999</v>
       </c>
       <c r="E201">
-        <v>32.68226223123784</v>
+        <v>8.648139265923012</v>
       </c>
       <c r="F201">
-        <v>11.72326941193598</v>
+        <v>16.22047113159498</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>21.3813326194731</v>
+        <v>8.180046091085792</v>
       </c>
       <c r="C202">
-        <v>8.096115860552132</v>
+        <v>35.45231719200616</v>
       </c>
       <c r="D202">
-        <v>13.56214624016546</v>
+        <v>21.67495335484142</v>
       </c>
       <c r="E202">
-        <v>32.67940565706591</v>
+        <v>8.682854045485472</v>
       </c>
       <c r="F202">
-        <v>11.7198928895227</v>
+        <v>16.26204996316758</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>21.38355334035549</v>
+        <v>8.202622751606802</v>
       </c>
       <c r="C203">
-        <v>8.096094893374126</v>
+        <v>35.46613451136817</v>
       </c>
       <c r="D203">
-        <v>13.56861776866142</v>
+        <v>21.67219804394601</v>
       </c>
       <c r="E203">
-        <v>32.67640758191138</v>
+        <v>8.717449756214094</v>
       </c>
       <c r="F203">
-        <v>11.71647086449082</v>
+        <v>16.30335041500338</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>21.38552634371043</v>
+        <v>8.225062186778505</v>
       </c>
       <c r="C204">
-        <v>8.095836041595271</v>
+        <v>35.47975916462043</v>
       </c>
       <c r="D204">
-        <v>13.57503794318706</v>
+        <v>21.66933118417197</v>
       </c>
       <c r="E204">
-        <v>32.67327072096992</v>
+        <v>8.751926933883757</v>
       </c>
       <c r="F204">
-        <v>11.71300418444448</v>
+        <v>16.34437376208937</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>21.38725529599089</v>
+        <v>8.247364882839102</v>
       </c>
       <c r="C205">
-        <v>8.095341742027799</v>
+        <v>35.49319534201131</v>
       </c>
       <c r="D205">
-        <v>13.58140811819752</v>
+        <v>21.66635479079983</v>
       </c>
       <c r="E205">
-        <v>32.6699976866144</v>
+        <v>8.786286114254372</v>
       </c>
       <c r="F205">
-        <v>11.70949366637389</v>
+        <v>16.38512127612799</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>21.38874379846367</v>
+        <v>8.269531329727824</v>
       </c>
       <c r="C206">
-        <v>8.094614410851364</v>
+        <v>35.50644713696774</v>
       </c>
       <c r="D206">
-        <v>13.58772961533621</v>
+        <v>21.66327082319404</v>
       </c>
       <c r="E206">
-        <v>32.66659104293272</v>
+        <v>8.820527833498295</v>
       </c>
       <c r="F206">
-        <v>11.70594011244359</v>
+        <v>16.42559422509893</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>21.38999538682188</v>
+        <v>8.291562022139175</v>
       </c>
       <c r="C207">
-        <v>8.093656443778318</v>
+        <v>35.51951852909091</v>
       </c>
       <c r="D207">
-        <v>13.59400372915014</v>
+        <v>21.66008120446855</v>
       </c>
       <c r="E207">
-        <v>32.66305328578098</v>
+        <v>8.854652627503119</v>
       </c>
       <c r="F207">
-        <v>11.70234429998748</v>
+        <v>16.46579387403855</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>21.39101353806871</v>
+        <v>8.313457457679728</v>
       </c>
       <c r="C208">
-        <v>8.092470215454437</v>
+        <v>35.53241345868619</v>
       </c>
       <c r="D208">
-        <v>13.60023172122642</v>
+        <v>21.65678780262354</v>
       </c>
       <c r="E208">
-        <v>32.65938683900369</v>
+        <v>8.888661031689214</v>
       </c>
       <c r="F208">
-        <v>11.69870698457261</v>
+        <v>16.50572148530781</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>21.39180166761899</v>
+        <v>8.335218137437497</v>
       </c>
       <c r="C209">
-        <v>8.091058080117207</v>
+        <v>35.54513576716461</v>
       </c>
       <c r="D209">
-        <v>13.60641482525101</v>
+        <v>21.65339243840276</v>
       </c>
       <c r="E209">
-        <v>32.65559405011945</v>
+        <v>8.92255358166905</v>
       </c>
       <c r="F209">
-        <v>11.6950288952047</v>
+        <v>16.54537831799338</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>21.3923631287758</v>
+        <v>8.356844566215853</v>
       </c>
       <c r="C210">
-        <v>8.089422370679738</v>
+        <v>35.55768921654953</v>
       </c>
       <c r="D210">
-        <v>13.61255425859913</v>
+        <v>21.64989686869757</v>
       </c>
       <c r="E210">
-        <v>32.65167719450017</v>
+        <v>8.956330812618038</v>
       </c>
       <c r="F210">
-        <v>11.6913107470089</v>
+        <v>16.58476562680653</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>21.39270121788887</v>
+        <v>8.378337251039044</v>
       </c>
       <c r="C211">
-        <v>8.087565399674018</v>
+        <v>35.57007746918728</v>
       </c>
       <c r="D211">
-        <v>13.61865120962321</v>
+        <v>21.64630282290075</v>
       </c>
       <c r="E211">
-        <v>32.64763850455213</v>
+        <v>8.989993258814991</v>
       </c>
       <c r="F211">
-        <v>11.68755323315469</v>
+        <v>16.6238846631705</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>21.3928191742087</v>
+        <v>8.399696701931795</v>
       </c>
       <c r="C212">
-        <v>8.08548945831768</v>
+        <v>35.58230411731996</v>
       </c>
       <c r="D212">
-        <v>13.62470684262057</v>
+        <v>21.64261198322167</v>
       </c>
       <c r="E212">
-        <v>32.64348014369213</v>
+        <v>9.023541454350063</v>
       </c>
       <c r="F212">
-        <v>11.68375702718071</v>
+        <v>16.6627366752368</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>21.39272017942163</v>
+        <v>8.420923431654456</v>
       </c>
       <c r="C213">
-        <v>8.083196817198687</v>
+        <v>35.59437269344809</v>
       </c>
       <c r="D213">
-        <v>13.63072228945516</v>
+        <v>21.63882598799026</v>
       </c>
       <c r="E213">
-        <v>32.63920421496545</v>
+        <v>9.056975932752902</v>
       </c>
       <c r="F213">
-        <v>11.67992277925254</v>
+        <v>16.70132290784571</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>21.39240735825523</v>
+        <v>8.442017954774192</v>
       </c>
       <c r="C214">
-        <v>8.080689726011023</v>
+        <v>35.60628664861677</v>
       </c>
       <c r="D214">
-        <v>13.63669866571866</v>
+        <v>21.63494642810587</v>
       </c>
       <c r="E214">
-        <v>32.63481274334049</v>
+        <v>9.090297226477247</v>
       </c>
       <c r="F214">
-        <v>11.67605112697358</v>
+        <v>16.73964460093096</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>21.39188378336159</v>
+        <v>8.462980788381392</v>
       </c>
       <c r="C215">
-        <v>8.077970413539575</v>
+        <v>35.61804936309088</v>
       </c>
       <c r="D215">
-        <v>13.64263706534883</v>
+        <v>21.63097483927658</v>
       </c>
       <c r="E215">
-        <v>32.63030772301458</v>
+        <v>9.123505867447159</v>
       </c>
       <c r="F215">
-        <v>11.67214268838872</v>
+        <v>16.7777029908388</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>21.39115247330113</v>
+        <v>8.48381245139583</v>
       </c>
       <c r="C216">
-        <v>8.075041087978438</v>
+        <v>35.62966411716102</v>
       </c>
       <c r="D216">
-        <v>13.64853855864187</v>
+        <v>21.6269127411772</v>
       </c>
       <c r="E216">
-        <v>32.62569108476025</v>
+        <v>9.156602386879193</v>
       </c>
       <c r="F216">
-        <v>11.66819806381259</v>
+        <v>16.81549931013554</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>21.39021639130195</v>
+        <v>8.504513464253238</v>
       </c>
       <c r="C217">
-        <v>8.071903936576083</v>
+        <v>35.64113415839061</v>
       </c>
       <c r="D217">
-        <v>13.65440419415808</v>
+        <v>21.62276160553672</v>
       </c>
       <c r="E217">
-        <v>32.62096470673</v>
+        <v>9.189587314753414</v>
       </c>
       <c r="F217">
-        <v>11.6642178329888</v>
+        <v>16.85303478798346</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>21.38907845187347</v>
+        <v>8.525084349518732</v>
       </c>
       <c r="C218">
-        <v>8.068561126086443</v>
+        <v>35.65246265587596</v>
       </c>
       <c r="D218">
-        <v>13.66023498939835</v>
+        <v>21.61852286660244</v>
       </c>
       <c r="E218">
-        <v>32.61613040047254</v>
+        <v>9.222461180239204</v>
       </c>
       <c r="F218">
-        <v>11.66020256428963</v>
+        <v>16.89031064825685</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>21.38774151825373</v>
+        <v>8.545525630722647</v>
       </c>
       <c r="C219">
-        <v>8.065014802475133</v>
+        <v>35.66365271358075</v>
       </c>
       <c r="D219">
-        <v>13.66603195393167</v>
+        <v>21.61419790796749</v>
       </c>
       <c r="E219">
-        <v>32.61118993679936</v>
+        <v>9.25522451160797</v>
       </c>
       <c r="F219">
-        <v>11.65615280864373</v>
+        <v>16.92732811096211</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>21.38620840283928</v>
+        <v>8.565837832815594</v>
       </c>
       <c r="C220">
-        <v>8.06126709151491</v>
+        <v>35.67470736585989</v>
       </c>
       <c r="D220">
-        <v>13.67179607276293</v>
+        <v>21.60978808506863</v>
       </c>
       <c r="E220">
-        <v>32.6061450411806</v>
+        <v>9.287877835794069</v>
       </c>
       <c r="F220">
-        <v>11.65206910093684</v>
+        <v>16.96408839190889</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>21.38448186872841</v>
+        <v>8.586021482223366</v>
       </c>
       <c r="C221">
-        <v>8.057320098366631</v>
+        <v>35.68562957327068</v>
       </c>
       <c r="D221">
-        <v>13.67752831142683</v>
+        <v>21.60529472283802</v>
       </c>
       <c r="E221">
-        <v>32.60099738848407</v>
+        <v>9.320421678710673</v>
       </c>
       <c r="F221">
-        <v>11.64795195797057</v>
+        <v>17.00059270336752</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>21.38256463262858</v>
+        <v>8.606077106004905</v>
       </c>
       <c r="C222">
-        <v>8.053175908021455</v>
+        <v>35.69642225660232</v>
       </c>
       <c r="D222">
-        <v>13.68322961420402</v>
+        <v>21.60071910828304</v>
       </c>
       <c r="E222">
-        <v>32.59574860088996</v>
+        <v>9.352856565273179</v>
       </c>
       <c r="F222">
-        <v>11.64380188620872</v>
+        <v>17.03684225204702</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.38045936353652</v>
+        <v>8.626005232326484</v>
       </c>
       <c r="C223">
-        <v>8.048836585330976</v>
+        <v>35.70708826921896</v>
       </c>
       <c r="D223">
-        <v>13.68890090243523</v>
+        <v>21.59606249377945</v>
       </c>
       <c r="E223">
-        <v>32.59040024706507</v>
+        <v>9.38518301889132</v>
       </c>
       <c r="F223">
-        <v>11.63961937654524</v>
+        <v>17.07283824053465</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.37816868199246</v>
+        <v>8.645806390269845</v>
       </c>
       <c r="C224">
-        <v>8.044304175035782</v>
+        <v>35.71763040705915</v>
       </c>
       <c r="D224">
-        <v>13.69454308692456</v>
+        <v>21.59132608546009</v>
       </c>
       <c r="E224">
-        <v>32.58495386805547</v>
+        <v>9.417401561809971</v>
       </c>
       <c r="F224">
-        <v>11.63540490536237</v>
+        <v>17.10858186688402</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>21.37569516566719</v>
+        <v>8.665481109318556</v>
       </c>
       <c r="C225">
-        <v>8.039580702062439</v>
+        <v>35.7280513951348</v>
       </c>
       <c r="D225">
-        <v>13.70015705767609</v>
+        <v>21.58651107519987</v>
       </c>
       <c r="E225">
-        <v>32.57941095565954</v>
+        <v>9.449512715180651</v>
       </c>
       <c r="F225">
-        <v>11.63115893326355</v>
+        <v>17.144074325452</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>21.37304134698129</v>
+        <v>8.685029919800412</v>
       </c>
       <c r="C226">
-        <v>8.034668171450342</v>
+        <v>35.73835391070813</v>
       </c>
       <c r="D226">
-        <v>13.70574368747933</v>
+        <v>21.58161861737024</v>
       </c>
       <c r="E226">
-        <v>32.57377295984976</v>
+        <v>9.481516998539275</v>
       </c>
       <c r="F226">
-        <v>11.62688191128999</v>
+        <v>17.17931680483888</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>21.37020971163824</v>
+        <v>8.704453352424089</v>
       </c>
       <c r="C227">
-        <v>8.029568568724409</v>
+        <v>35.74854058341567</v>
       </c>
       <c r="D227">
-        <v>13.71130382782019</v>
+        <v>21.57664983618558</v>
       </c>
       <c r="E227">
-        <v>32.56804127144562</v>
+        <v>9.513414930136042</v>
       </c>
       <c r="F227">
-        <v>11.62257427663678</v>
+        <v>17.21431048929895</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>21.36720270389915</v>
+        <v>8.723751938158394</v>
       </c>
       <c r="C228">
-        <v>8.024283859791529</v>
+        <v>35.75861398603525</v>
       </c>
       <c r="D228">
-        <v>13.71683831459442</v>
+        <v>21.5716058205958</v>
       </c>
       <c r="E228">
-        <v>32.56221726362431</v>
+        <v>9.545207027045533</v>
       </c>
       <c r="F228">
-        <v>11.61823645336444</v>
+        <v>17.24905655829861</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>21.36402272740607</v>
+        <v>8.742926208567566</v>
       </c>
       <c r="C229">
-        <v>8.018815991334542</v>
+        <v>35.76857663968303</v>
       </c>
       <c r="D229">
-        <v>13.72234797112866</v>
+        <v>21.56648762984685</v>
       </c>
       <c r="E229">
-        <v>32.55630226332066</v>
+        <v>9.576893804653308</v>
       </c>
       <c r="F229">
-        <v>11.61386885176142</v>
+        <v>17.28355618739833</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>21.36067214405365</v>
+        <v>8.761976695130656</v>
       </c>
       <c r="C230">
-        <v>8.013166890775107</v>
+        <v>35.77843099335602</v>
       </c>
       <c r="D230">
-        <v>13.72783360308448</v>
+        <v>21.56129630210888</v>
       </c>
       <c r="E230">
-        <v>32.55029756013994</v>
+        <v>9.60847577696202</v>
       </c>
       <c r="F230">
-        <v>11.60947187329087</v>
+        <v>17.31781054634241</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>21.35715327570954</v>
+        <v>8.780903929528064</v>
       </c>
       <c r="C231">
-        <v>8.007338466545509</v>
+        <v>35.78817947387763</v>
       </c>
       <c r="D231">
-        <v>13.73329600087458</v>
+        <v>21.55603284488637</v>
       </c>
       <c r="E231">
-        <v>32.54420439721404</v>
+        <v>9.639953456687783</v>
       </c>
       <c r="F231">
-        <v>11.60504590709453</v>
+        <v>17.35182080027984</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>21.35346839897205</v>
+        <v>8.799708443653737</v>
       </c>
       <c r="C232">
-        <v>8.001332608248154</v>
+        <v>35.79782445047144</v>
       </c>
       <c r="D232">
-        <v>13.73873593354373</v>
+        <v>21.5506982392159</v>
       </c>
       <c r="E232">
-        <v>32.53802398635184</v>
+        <v>9.671327354841866</v>
       </c>
       <c r="F232">
-        <v>11.60059132942476</v>
+        <v>17.38558810943071</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>21.34961974934329</v>
+        <v>8.818390769142828</v>
       </c>
       <c r="C233">
-        <v>7.995151186746655</v>
+        <v>35.80736824567841</v>
       </c>
       <c r="D233">
-        <v>13.74415416184351</v>
+        <v>21.54529342850676</v>
       </c>
       <c r="E233">
-        <v>32.53175750897741</v>
+        <v>9.702597980963535</v>
       </c>
       <c r="F233">
-        <v>11.59610850380712</v>
+        <v>17.41911362973562</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>21.34560953439227</v>
+        <v>8.83695143776308</v>
       </c>
       <c r="C234">
-        <v>7.988796054462044</v>
+        <v>35.81681312994866</v>
       </c>
       <c r="D234">
-        <v>13.74955143111361</v>
+        <v>21.53981934356753</v>
       </c>
       <c r="E234">
-        <v>32.52540610980472</v>
+        <v>9.733765843216593</v>
       </c>
       <c r="F234">
-        <v>11.59159778820028</v>
+        <v>17.45239851156049</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>21.34143992004494</v>
+        <v>8.855390981184602</v>
       </c>
       <c r="C235">
-        <v>7.98226904540211</v>
+        <v>35.82616132150987</v>
       </c>
       <c r="D235">
-        <v>13.75492847218019</v>
+        <v>21.5342768867912</v>
       </c>
       <c r="E235">
-        <v>32.51897089725821</v>
+        <v>9.764831448041948</v>
       </c>
       <c r="F235">
-        <v>11.58705952883036</v>
+        <v>17.4854439002905</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>21.33711303601487</v>
+        <v>8.873709930528351</v>
       </c>
       <c r="C236">
-        <v>7.975571975447739</v>
+        <v>35.83541501042571</v>
       </c>
       <c r="D236">
-        <v>13.76028600156646</v>
+        <v>21.52866693610961</v>
       </c>
       <c r="E236">
-        <v>32.51245294081713</v>
+        <v>9.795795300344015</v>
       </c>
       <c r="F236">
-        <v>11.5824940624801</v>
+        <v>17.51825093631358</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>21.33263097205481</v>
+        <v>8.891908816615063</v>
       </c>
       <c r="C237">
-        <v>7.968706642477162</v>
+        <v>35.84457633745215</v>
       </c>
       <c r="D237">
-        <v>13.76562471710143</v>
+        <v>21.52299034267934</v>
       </c>
       <c r="E237">
-        <v>32.50585328969707</v>
+        <v>9.826657903567625</v>
       </c>
       <c r="F237">
-        <v>11.57790171690084</v>
+        <v>17.55082075591136</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>21.3279957669263</v>
+        <v>8.909988170171552</v>
       </c>
       <c r="C238">
-        <v>7.961674826567947</v>
+        <v>35.85364740174049</v>
       </c>
       <c r="D238">
-        <v>13.77094531088176</v>
+        <v>21.51724792933788</v>
       </c>
       <c r="E238">
-        <v>32.49917295823272</v>
+        <v>9.857419759439173</v>
       </c>
       <c r="F238">
-        <v>11.57328280525455</v>
+        <v>17.5831544895311</v>
       </c>
     </row>
   </sheetData>
